--- a/srkv.xlsx
+++ b/srkv.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="984" yWindow="156" windowWidth="20760" windowHeight="11184" tabRatio="600" firstSheet="5" activeTab="16" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="984" yWindow="156" windowWidth="20760" windowHeight="11184" tabRatio="600" firstSheet="9" activeTab="18" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="ориг" sheetId="1" state="visible" r:id="rId1"/>
@@ -23,9 +23,11 @@
     <sheet name="my(13)" sheetId="15" state="visible" r:id="rId15"/>
     <sheet name="my(14)" sheetId="16" state="visible" r:id="rId16"/>
     <sheet name="my(15)" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="my(16)" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="my(17)" sheetId="19" state="visible" r:id="rId19"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="162913" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -1519,7 +1521,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t>None</a:t>
+              <a:t/>
             </a:r>
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
@@ -1582,7 +1584,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t>None</a:t>
+              <a:t/>
             </a:r>
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
@@ -1620,7 +1622,7 @@
             </a:defRPr>
           </a:pPr>
           <a:r>
-            <a:t>None</a:t>
+            <a:t/>
           </a:r>
           <a:endParaRPr lang="ru-RU"/>
         </a:p>
@@ -2376,7 +2378,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t>None</a:t>
+              <a:t/>
             </a:r>
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
@@ -2438,7 +2440,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t>None</a:t>
+              <a:t/>
             </a:r>
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
@@ -2476,7 +2478,7 @@
             </a:defRPr>
           </a:pPr>
           <a:r>
-            <a:t>None</a:t>
+            <a:t/>
           </a:r>
           <a:endParaRPr lang="ru-RU"/>
         </a:p>
@@ -3127,7 +3129,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t>None</a:t>
+              <a:t/>
             </a:r>
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
@@ -3189,7 +3191,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t>None</a:t>
+              <a:t/>
             </a:r>
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
@@ -3227,7 +3229,7 @@
             </a:defRPr>
           </a:pPr>
           <a:r>
-            <a:t>None</a:t>
+            <a:t/>
           </a:r>
           <a:endParaRPr lang="ru-RU"/>
         </a:p>
@@ -3878,7 +3880,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t>None</a:t>
+              <a:t/>
             </a:r>
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
@@ -3940,7 +3942,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t>None</a:t>
+              <a:t/>
             </a:r>
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
@@ -3978,7 +3980,7 @@
             </a:defRPr>
           </a:pPr>
           <a:r>
-            <a:t>None</a:t>
+            <a:t/>
           </a:r>
           <a:endParaRPr lang="ru-RU"/>
         </a:p>
@@ -4629,7 +4631,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t>None</a:t>
+              <a:t/>
             </a:r>
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
@@ -4691,7 +4693,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t>None</a:t>
+              <a:t/>
             </a:r>
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
@@ -4729,7 +4731,7 @@
             </a:defRPr>
           </a:pPr>
           <a:r>
-            <a:t>None</a:t>
+            <a:t/>
           </a:r>
           <a:endParaRPr lang="ru-RU"/>
         </a:p>
@@ -5350,7 +5352,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t>None</a:t>
+              <a:t/>
             </a:r>
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
@@ -5412,7 +5414,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t>None</a:t>
+              <a:t/>
             </a:r>
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
@@ -5450,7 +5452,7 @@
             </a:defRPr>
           </a:pPr>
           <a:r>
-            <a:t>None</a:t>
+            <a:t/>
           </a:r>
           <a:endParaRPr lang="ru-RU"/>
         </a:p>
@@ -6101,7 +6103,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t>None</a:t>
+              <a:t/>
             </a:r>
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
@@ -6163,7 +6165,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t>None</a:t>
+              <a:t/>
             </a:r>
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
@@ -6201,7 +6203,7 @@
             </a:defRPr>
           </a:pPr>
           <a:r>
-            <a:t>None</a:t>
+            <a:t/>
           </a:r>
           <a:endParaRPr lang="ru-RU"/>
         </a:p>
@@ -6229,7 +6231,6 @@
           </a:p>
         </rich>
       </tx>
-      <layout/>
       <overlay val="0"/>
       <spPr>
         <a:noFill/>
@@ -6703,7 +6704,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t>None</a:t>
+              <a:t/>
             </a:r>
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
@@ -6765,7 +6766,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t>None</a:t>
+              <a:t/>
             </a:r>
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
@@ -6777,7 +6778,6 @@
     </plotArea>
     <legend>
       <legendPos val="b"/>
-      <layout/>
       <overlay val="0"/>
       <spPr>
         <a:noFill/>
@@ -6804,7 +6804,7 @@
             </a:defRPr>
           </a:pPr>
           <a:r>
-            <a:t>None</a:t>
+            <a:t/>
           </a:r>
           <a:endParaRPr lang="ru-RU"/>
         </a:p>
@@ -6832,7 +6832,6 @@
           </a:p>
         </rich>
       </tx>
-      <layout/>
       <overlay val="0"/>
       <spPr>
         <a:noFill/>
@@ -6880,19 +6879,28 @@
           </marker>
           <cat>
             <numRef>
-              <f>'my(15)'!$B$1:$K$1</f>
+              <f>'my(15)'!$B$1:$D$1</f>
               <numCache>
                 <formatCode>General</formatCode>
-                <ptCount val="10"/>
+                <ptCount val="3"/>
+                <pt idx="0">
+                  <v>0.05</v>
+                </pt>
+                <pt idx="1">
+                  <v>0.05</v>
+                </pt>
+                <pt idx="2">
+                  <v>0.05</v>
+                </pt>
               </numCache>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'my(15)'!$B$2:$K$2</f>
+              <f>'my(15)'!$B$2:$D$2</f>
               <numCache>
                 <formatCode>General</formatCode>
-                <ptCount val="10"/>
+                <ptCount val="3"/>
               </numCache>
             </numRef>
           </val>
@@ -6931,19 +6939,37 @@
           </marker>
           <cat>
             <numRef>
-              <f>'my(15)'!$B$1:$K$1</f>
+              <f>'my(15)'!$B$1:$D$1</f>
               <numCache>
                 <formatCode>General</formatCode>
-                <ptCount val="10"/>
+                <ptCount val="3"/>
+                <pt idx="0">
+                  <v>0.05</v>
+                </pt>
+                <pt idx="1">
+                  <v>0.05</v>
+                </pt>
+                <pt idx="2">
+                  <v>0.05</v>
+                </pt>
               </numCache>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'my(15)'!$B$3:$K$3</f>
+              <f>'my(15)'!$B$3:$D$3</f>
               <numCache>
                 <formatCode>General</formatCode>
-                <ptCount val="10"/>
+                <ptCount val="3"/>
+                <pt idx="0">
+                  <v>0.01710128390854469</v>
+                </pt>
+                <pt idx="1">
+                  <v>0.01520760923741227</v>
+                </pt>
+                <pt idx="2">
+                  <v>0.04443798083591816</v>
+                </pt>
               </numCache>
             </numRef>
           </val>
@@ -6954,11 +6980,606 @@
           <order val="2"/>
           <tx>
             <strRef>
-              <f>'my(15)'!$A$4</f>
+              <f>'my(15)'!$A$5</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>LP</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'my(15)'!$B$1:$D$1</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="3"/>
+                <pt idx="0">
+                  <v>0.05</v>
+                </pt>
+                <pt idx="1">
+                  <v>0.05</v>
+                </pt>
+                <pt idx="2">
+                  <v>0.05</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'my(15)'!$B$5:$D$5</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="3"/>
+              </numCache>
+            </numRef>
+          </val>
+          <smooth val="0"/>
+        </ser>
+        <ser>
+          <idx val="3"/>
+          <order val="3"/>
+          <tx>
+            <strRef>
+              <f>'my(15)'!$A$6</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>Фурье</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'my(15)'!$B$1:$D$1</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="3"/>
+                <pt idx="0">
+                  <v>0.05</v>
+                </pt>
+                <pt idx="1">
+                  <v>0.05</v>
+                </pt>
+                <pt idx="2">
+                  <v>0.05</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'my(15)'!$B$6:$D$6</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="3"/>
+              </numCache>
+            </numRef>
+          </val>
+          <smooth val="0"/>
+        </ser>
+        <ser>
+          <idx val="4"/>
+          <order val="4"/>
+          <tx>
+            <strRef>
+              <f>'my(15)'!$A$7</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>МНК</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'my(15)'!$B$1:$D$1</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="3"/>
+                <pt idx="0">
+                  <v>0.05</v>
+                </pt>
+                <pt idx="1">
+                  <v>0.05</v>
+                </pt>
+                <pt idx="2">
+                  <v>0.05</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'my(15)'!$B$7:$D$7</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="3"/>
+                <pt idx="0">
+                  <v>0.03372954068072945</v>
+                </pt>
+                <pt idx="1">
+                  <v>0.02729955344145545</v>
+                </pt>
+                <pt idx="2">
+                  <v>0.04562034148054177</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </val>
+          <smooth val="0"/>
+        </ser>
+        <dLbls>
+          <showLegendKey val="0"/>
+          <showVal val="0"/>
+          <showCatName val="0"/>
+          <showSerName val="0"/>
+          <showPercent val="0"/>
+          <showBubbleSize val="0"/>
+        </dLbls>
+        <smooth val="0"/>
+        <axId val="88011168"/>
+        <axId val="86219328"/>
+      </lineChart>
+      <catAx>
+        <axId val="88011168"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <delete val="0"/>
+        <axPos val="b"/>
+        <numFmt formatCode="General" sourceLinked="1"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <tickLblPos val="nextTo"/>
+        <spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+          </a:ln>
+        </spPr>
+        <txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:t/>
+            </a:r>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </txPr>
+        <crossAx val="86219328"/>
+        <crosses val="autoZero"/>
+        <auto val="1"/>
+        <lblAlgn val="ctr"/>
+        <lblOffset val="100"/>
+        <noMultiLvlLbl val="0"/>
+      </catAx>
+      <valAx>
+        <axId val="86219328"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <delete val="0"/>
+        <axPos val="l"/>
+        <majorGridlines>
+          <spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+          </spPr>
+        </majorGridlines>
+        <numFmt formatCode="General" sourceLinked="1"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <tickLblPos val="nextTo"/>
+        <spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+            <a:prstDash val="solid"/>
+          </a:ln>
+        </spPr>
+        <txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:t/>
+            </a:r>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </txPr>
+        <crossAx val="88011168"/>
+        <crosses val="autoZero"/>
+        <crossBetween val="between"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="b"/>
+      <overlay val="0"/>
+      <spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+      <txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:t/>
+          </a:r>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </txPr>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>None</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+      <overlay val="0"/>
+      <spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </title>
+    <plotArea>
+      <layout/>
+      <lineChart>
+        <grouping val="standard"/>
+        <varyColors val="0"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'my(16)'!$A$2</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>МШ</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'my(16)'!$B$1:$K$1</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="10"/>
+                <pt idx="0">
+                  <v>0.05</v>
+                </pt>
+                <pt idx="1">
+                  <v>0.1</v>
+                </pt>
+                <pt idx="2">
+                  <v>0.15</v>
+                </pt>
+                <pt idx="3">
+                  <v>0.2</v>
+                </pt>
+                <pt idx="4">
+                  <v>0.25</v>
+                </pt>
+                <pt idx="5">
+                  <v>0.3</v>
+                </pt>
+                <pt idx="6">
+                  <v>0.35</v>
+                </pt>
+                <pt idx="7">
+                  <v>0.4</v>
+                </pt>
+                <pt idx="8">
+                  <v>0.45</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'my(16)'!$B$2:$K$2</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="10"/>
+                <pt idx="0">
+                  <v>0.007365007990507895</v>
+                </pt>
+                <pt idx="1">
+                  <v>0.008349261247380247</v>
+                </pt>
+                <pt idx="2">
+                  <v>0.0440904268775991</v>
+                </pt>
+                <pt idx="3">
+                  <v>0.2196896345188084</v>
+                </pt>
+                <pt idx="4">
+                  <v>0.1778664460169615</v>
+                </pt>
+                <pt idx="5">
+                  <v>0.258610233993401</v>
+                </pt>
+                <pt idx="6">
+                  <v>0.5245910684933137</v>
+                </pt>
+                <pt idx="7">
+                  <v>0.2019596383669947</v>
+                </pt>
+                <pt idx="8">
+                  <v>0.323586734080846</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </val>
+          <smooth val="0"/>
+        </ser>
+        <ser>
+          <idx val="1"/>
+          <order val="1"/>
+          <tx>
+            <strRef>
+              <f>'my(16)'!$A$3</f>
               <strCache>
                 <ptCount val="1"/>
                 <pt idx="0">
                   <v>DOG</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'my(16)'!$B$1:$K$1</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="10"/>
+                <pt idx="0">
+                  <v>0.05</v>
+                </pt>
+                <pt idx="1">
+                  <v>0.1</v>
+                </pt>
+                <pt idx="2">
+                  <v>0.15</v>
+                </pt>
+                <pt idx="3">
+                  <v>0.2</v>
+                </pt>
+                <pt idx="4">
+                  <v>0.25</v>
+                </pt>
+                <pt idx="5">
+                  <v>0.3</v>
+                </pt>
+                <pt idx="6">
+                  <v>0.35</v>
+                </pt>
+                <pt idx="7">
+                  <v>0.4</v>
+                </pt>
+                <pt idx="8">
+                  <v>0.45</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'my(16)'!$B$3:$K$3</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="10"/>
+                <pt idx="0">
+                  <v>0.5688219367684917</v>
+                </pt>
+                <pt idx="1">
+                  <v>0.1779184946905529</v>
+                </pt>
+                <pt idx="2">
+                  <v>0.2100873410850658</v>
+                </pt>
+                <pt idx="3">
+                  <v>0.08007587142386925</v>
+                </pt>
+                <pt idx="4">
+                  <v>0.3253673928795714</v>
+                </pt>
+                <pt idx="5">
+                  <v>0.3490136118312274</v>
+                </pt>
+                <pt idx="6">
+                  <v>0.7849370693547348</v>
+                </pt>
+                <pt idx="7">
+                  <v>0.4521267771144893</v>
+                </pt>
+                <pt idx="8">
+                  <v>1.622902303600773</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </val>
+          <smooth val="0"/>
+        </ser>
+        <ser>
+          <idx val="2"/>
+          <order val="2"/>
+          <tx>
+            <strRef>
+              <f>'my(16)'!$A$4</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>МНК</v>
                 </pt>
               </strCache>
             </strRef>
@@ -6982,19 +7603,73 @@
           </marker>
           <cat>
             <numRef>
-              <f>'my(15)'!$B$1:$K$1</f>
+              <f>'my(16)'!$B$1:$K$1</f>
               <numCache>
                 <formatCode>General</formatCode>
                 <ptCount val="10"/>
+                <pt idx="0">
+                  <v>0.05</v>
+                </pt>
+                <pt idx="1">
+                  <v>0.1</v>
+                </pt>
+                <pt idx="2">
+                  <v>0.15</v>
+                </pt>
+                <pt idx="3">
+                  <v>0.2</v>
+                </pt>
+                <pt idx="4">
+                  <v>0.25</v>
+                </pt>
+                <pt idx="5">
+                  <v>0.3</v>
+                </pt>
+                <pt idx="6">
+                  <v>0.35</v>
+                </pt>
+                <pt idx="7">
+                  <v>0.4</v>
+                </pt>
+                <pt idx="8">
+                  <v>0.45</v>
+                </pt>
               </numCache>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'my(15)'!$B$4:$K$4</f>
+              <f>'my(16)'!$B$4:$K$4</f>
               <numCache>
                 <formatCode>General</formatCode>
                 <ptCount val="10"/>
+                <pt idx="0">
+                  <v>0.03372954068072945</v>
+                </pt>
+                <pt idx="1">
+                  <v>0.02729955344145545</v>
+                </pt>
+                <pt idx="2">
+                  <v>0.04562034148054177</v>
+                </pt>
+                <pt idx="3">
+                  <v>0.06710093199620062</v>
+                </pt>
+                <pt idx="4">
+                  <v>0.0849890516372795</v>
+                </pt>
+                <pt idx="5">
+                  <v>0.07747456425643602</v>
+                </pt>
+                <pt idx="6">
+                  <v>0.08946897404534337</v>
+                </pt>
+                <pt idx="7">
+                  <v>0.07683853493090385</v>
+                </pt>
+                <pt idx="8">
+                  <v>0.1206574799343306</v>
+                </pt>
               </numCache>
             </numRef>
           </val>
@@ -7005,12 +7680,9 @@
           <order val="3"/>
           <tx>
             <strRef>
-              <f>'my(15)'!$A$5</f>
+              <f>'my(16)'!$A$5</f>
               <strCache>
                 <ptCount val="1"/>
-                <pt idx="0">
-                  <v>LP</v>
-                </pt>
               </strCache>
             </strRef>
           </tx>
@@ -7033,16 +7705,43 @@
           </marker>
           <cat>
             <numRef>
-              <f>'my(15)'!$B$1:$K$1</f>
+              <f>'my(16)'!$B$1:$K$1</f>
               <numCache>
                 <formatCode>General</formatCode>
                 <ptCount val="10"/>
+                <pt idx="0">
+                  <v>0.05</v>
+                </pt>
+                <pt idx="1">
+                  <v>0.1</v>
+                </pt>
+                <pt idx="2">
+                  <v>0.15</v>
+                </pt>
+                <pt idx="3">
+                  <v>0.2</v>
+                </pt>
+                <pt idx="4">
+                  <v>0.25</v>
+                </pt>
+                <pt idx="5">
+                  <v>0.3</v>
+                </pt>
+                <pt idx="6">
+                  <v>0.35</v>
+                </pt>
+                <pt idx="7">
+                  <v>0.4</v>
+                </pt>
+                <pt idx="8">
+                  <v>0.45</v>
+                </pt>
               </numCache>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'my(15)'!$B$5:$K$5</f>
+              <f>'my(16)'!$B$5:$K$5</f>
               <numCache>
                 <formatCode>General</formatCode>
                 <ptCount val="10"/>
@@ -7056,12 +7755,9 @@
           <order val="4"/>
           <tx>
             <strRef>
-              <f>'my(15)'!$A$7</f>
+              <f>'my(16)'!$A$7</f>
               <strCache>
                 <ptCount val="1"/>
-                <pt idx="0">
-                  <v>МНК</v>
-                </pt>
               </strCache>
             </strRef>
           </tx>
@@ -7084,16 +7780,43 @@
           </marker>
           <cat>
             <numRef>
-              <f>'my(15)'!$B$1:$K$1</f>
+              <f>'my(16)'!$B$1:$K$1</f>
               <numCache>
                 <formatCode>General</formatCode>
                 <ptCount val="10"/>
+                <pt idx="0">
+                  <v>0.05</v>
+                </pt>
+                <pt idx="1">
+                  <v>0.1</v>
+                </pt>
+                <pt idx="2">
+                  <v>0.15</v>
+                </pt>
+                <pt idx="3">
+                  <v>0.2</v>
+                </pt>
+                <pt idx="4">
+                  <v>0.25</v>
+                </pt>
+                <pt idx="5">
+                  <v>0.3</v>
+                </pt>
+                <pt idx="6">
+                  <v>0.35</v>
+                </pt>
+                <pt idx="7">
+                  <v>0.4</v>
+                </pt>
+                <pt idx="8">
+                  <v>0.45</v>
+                </pt>
               </numCache>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'my(15)'!$B$7:$K$7</f>
+              <f>'my(16)'!$B$7:$K$7</f>
               <numCache>
                 <formatCode>General</formatCode>
                 <ptCount val="10"/>
@@ -7156,7 +7879,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t>None</a:t>
+              <a:t/>
             </a:r>
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
@@ -7218,7 +7941,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t>None</a:t>
+              <a:t/>
             </a:r>
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
@@ -7230,7 +7953,6 @@
     </plotArea>
     <legend>
       <legendPos val="b"/>
-      <layout/>
       <overlay val="0"/>
       <spPr>
         <a:noFill/>
@@ -7257,7 +7979,7 @@
             </a:defRPr>
           </a:pPr>
           <a:r>
-            <a:t>None</a:t>
+            <a:t/>
           </a:r>
           <a:endParaRPr lang="ru-RU"/>
         </a:p>
@@ -7269,7 +7991,7 @@
 </chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
@@ -7304,11 +8026,11 @@
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'my(1) без выбросов'!$A$2</f>
+              <f>'my(17)'!$A$2</f>
               <strCache>
                 <ptCount val="1"/>
                 <pt idx="0">
-                  <v>Морле</v>
+                  <v>МШ</v>
                 </pt>
               </strCache>
             </strRef>
@@ -7332,7 +8054,7 @@
           </marker>
           <cat>
             <numRef>
-              <f>'my(1) без выбросов'!$B$1:$K$1</f>
+              <f>'my(17)'!$B$1:$K$1</f>
               <numCache>
                 <formatCode>General</formatCode>
                 <ptCount val="10"/>
@@ -7352,58 +8074,34 @@
                   <v>0.25</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.3</v>
-                </pt>
-                <pt idx="6">
-                  <v>0.35</v>
-                </pt>
-                <pt idx="7">
-                  <v>0.4</v>
-                </pt>
-                <pt idx="8">
-                  <v>0.45</v>
-                </pt>
-                <pt idx="9">
-                  <v>0.5</v>
+                  <v>0.05</v>
                 </pt>
               </numCache>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'my(1) без выбросов'!$B$2:$K$2</f>
+              <f>'my(17)'!$B$2:$K$2</f>
               <numCache>
                 <formatCode>General</formatCode>
                 <ptCount val="10"/>
                 <pt idx="0">
-                  <v>0.3937252865123301</v>
+                  <v>0.007365007990507895</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.5944646335746482</v>
+                  <v>0.008349261247380247</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.9879105919633038</v>
+                  <v>0.0440904268775991</v>
                 </pt>
                 <pt idx="3">
-                  <v>1.278366784264217</v>
+                  <v>0.2196896345188084</v>
                 </pt>
                 <pt idx="4">
-                  <v>1.604396204496027</v>
+                  <v>0.1778664460169615</v>
                 </pt>
                 <pt idx="5">
-                  <v>2.498689206029405</v>
-                </pt>
-                <pt idx="6">
-                  <v>2.271064395751127</v>
-                </pt>
-                <pt idx="7">
-                  <v>3.109935574759742</v>
-                </pt>
-                <pt idx="8">
-                  <v>3.449102116567795</v>
-                </pt>
-                <pt idx="9">
-                  <v>4.095744156263317</v>
+                  <v>0.1778666021192322</v>
                 </pt>
               </numCache>
             </numRef>
@@ -7415,11 +8113,11 @@
           <order val="1"/>
           <tx>
             <strRef>
-              <f>'my(1) без выбросов'!$A$3</f>
+              <f>'my(17)'!$A$3</f>
               <strCache>
                 <ptCount val="1"/>
                 <pt idx="0">
-                  <v>МШ</v>
+                  <v>DOG</v>
                 </pt>
               </strCache>
             </strRef>
@@ -7443,7 +8141,7 @@
           </marker>
           <cat>
             <numRef>
-              <f>'my(1) без выбросов'!$B$1:$K$1</f>
+              <f>'my(17)'!$B$1:$K$1</f>
               <numCache>
                 <formatCode>General</formatCode>
                 <ptCount val="10"/>
@@ -7463,58 +8161,34 @@
                   <v>0.25</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.3</v>
-                </pt>
-                <pt idx="6">
-                  <v>0.35</v>
-                </pt>
-                <pt idx="7">
-                  <v>0.4</v>
-                </pt>
-                <pt idx="8">
-                  <v>0.45</v>
-                </pt>
-                <pt idx="9">
-                  <v>0.5</v>
+                  <v>0.05</v>
                 </pt>
               </numCache>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'my(1) без выбросов'!$B$3:$K$3</f>
+              <f>'my(17)'!$B$3:$K$3</f>
               <numCache>
                 <formatCode>General</formatCode>
                 <ptCount val="10"/>
                 <pt idx="0">
-                  <v>0.3960934718616754</v>
+                  <v>0.5688219367684917</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.6988322108496818</v>
+                  <v>0.1779184946905529</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.6628054412029116</v>
+                  <v>0.2100873410850658</v>
                 </pt>
                 <pt idx="3">
-                  <v>1.326135692437711</v>
+                  <v>0.08007587142386925</v>
                 </pt>
                 <pt idx="4">
-                  <v>1.591078966043489</v>
+                  <v>0.3253673928795714</v>
                 </pt>
                 <pt idx="5">
-                  <v>2.526187858158632</v>
-                </pt>
-                <pt idx="6">
-                  <v>2.472653513616411</v>
-                </pt>
-                <pt idx="7">
-                  <v>2.70978442191904</v>
-                </pt>
-                <pt idx="8">
-                  <v>3.204760839782293</v>
-                </pt>
-                <pt idx="9">
-                  <v>4.365885938869546</v>
+                  <v>0.3253680717228315</v>
                 </pt>
               </numCache>
             </numRef>
@@ -7526,11 +8200,11 @@
           <order val="2"/>
           <tx>
             <strRef>
-              <f>'my(1) без выбросов'!$A$4</f>
+              <f>'my(17)'!$A$4</f>
               <strCache>
                 <ptCount val="1"/>
                 <pt idx="0">
-                  <v>DOG</v>
+                  <v>МНК</v>
                 </pt>
               </strCache>
             </strRef>
@@ -7554,7 +8228,7 @@
           </marker>
           <cat>
             <numRef>
-              <f>'my(1) без выбросов'!$B$1:$K$1</f>
+              <f>'my(17)'!$B$1:$K$1</f>
               <numCache>
                 <formatCode>General</formatCode>
                 <ptCount val="10"/>
@@ -7574,58 +8248,34 @@
                   <v>0.25</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.3</v>
-                </pt>
-                <pt idx="6">
-                  <v>0.35</v>
-                </pt>
-                <pt idx="7">
-                  <v>0.4</v>
-                </pt>
-                <pt idx="8">
-                  <v>0.45</v>
-                </pt>
-                <pt idx="9">
-                  <v>0.5</v>
+                  <v>0.05</v>
                 </pt>
               </numCache>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'my(1) без выбросов'!$B$4:$K$4</f>
+              <f>'my(17)'!$B$4:$K$4</f>
               <numCache>
                 <formatCode>General</formatCode>
                 <ptCount val="10"/>
                 <pt idx="0">
-                  <v>0.4027566771163397</v>
+                  <v>0.03372954068072945</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.5907304292447854</v>
+                  <v>0.02729955344145545</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.9703071169334373</v>
+                  <v>0.04562034148054177</v>
                 </pt>
                 <pt idx="3">
-                  <v>1.28735655025252</v>
+                  <v>0.06710093199620062</v>
                 </pt>
                 <pt idx="4">
-                  <v>1.730046557793056</v>
+                  <v>0.0849890516372795</v>
                 </pt>
                 <pt idx="5">
-                  <v>2.359003067084978</v>
-                </pt>
-                <pt idx="6">
-                  <v>2.441061289920097</v>
-                </pt>
-                <pt idx="7">
-                  <v>2.987798260753872</v>
-                </pt>
-                <pt idx="8">
-                  <v>3.226469053239396</v>
-                </pt>
-                <pt idx="9">
-                  <v>4.311081211320632</v>
+                  <v>0.0849890516372795</v>
                 </pt>
               </numCache>
             </numRef>
@@ -7637,12 +8287,9 @@
           <order val="3"/>
           <tx>
             <strRef>
-              <f>'my(1) без выбросов'!$A$5</f>
+              <f>'my(17)'!$A$5</f>
               <strCache>
                 <ptCount val="1"/>
-                <pt idx="0">
-                  <v>LP</v>
-                </pt>
               </strCache>
             </strRef>
           </tx>
@@ -7665,7 +8312,7 @@
           </marker>
           <cat>
             <numRef>
-              <f>'my(1) без выбросов'!$B$1:$K$1</f>
+              <f>'my(17)'!$B$1:$K$1</f>
               <numCache>
                 <formatCode>General</formatCode>
                 <ptCount val="10"/>
@@ -7685,59 +8332,17 @@
                   <v>0.25</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.3</v>
-                </pt>
-                <pt idx="6">
-                  <v>0.35</v>
-                </pt>
-                <pt idx="7">
-                  <v>0.4</v>
-                </pt>
-                <pt idx="8">
-                  <v>0.45</v>
-                </pt>
-                <pt idx="9">
-                  <v>0.5</v>
+                  <v>0.05</v>
                 </pt>
               </numCache>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'my(1) без выбросов'!$B$5:$K$5</f>
+              <f>'my(17)'!$B$5:$K$5</f>
               <numCache>
                 <formatCode>General</formatCode>
                 <ptCount val="10"/>
-                <pt idx="0">
-                  <v>0.3849742776127866</v>
-                </pt>
-                <pt idx="1">
-                  <v>0.6299552931079169</v>
-                </pt>
-                <pt idx="2">
-                  <v>0.9895182897328403</v>
-                </pt>
-                <pt idx="3">
-                  <v>1.244613811614171</v>
-                </pt>
-                <pt idx="4">
-                  <v>1.498308952178846</v>
-                </pt>
-                <pt idx="5">
-                  <v>2.508301695497039</v>
-                </pt>
-                <pt idx="6">
-                  <v>2.377170868281043</v>
-                </pt>
-                <pt idx="7">
-                  <v>3.106568769089488</v>
-                </pt>
-                <pt idx="8">
-                  <v>3.445166486273438</v>
-                </pt>
-                <pt idx="9">
-                  <v>3.941977669022029</v>
-                </pt>
               </numCache>
             </numRef>
           </val>
@@ -7748,123 +8353,9 @@
           <order val="4"/>
           <tx>
             <strRef>
-              <f>'my(1) без выбросов'!$A$6</f>
+              <f>'my(17)'!$A$7</f>
               <strCache>
                 <ptCount val="1"/>
-                <pt idx="0">
-                  <v>Фурье</v>
-                </pt>
-              </strCache>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:round/>
-            </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="none"/>
-            <spPr>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <cat>
-            <numRef>
-              <f>'my(1) без выбросов'!$B$1:$K$1</f>
-              <numCache>
-                <formatCode>General</formatCode>
-                <ptCount val="10"/>
-                <pt idx="0">
-                  <v>0.05</v>
-                </pt>
-                <pt idx="1">
-                  <v>0.1</v>
-                </pt>
-                <pt idx="2">
-                  <v>0.15</v>
-                </pt>
-                <pt idx="3">
-                  <v>0.2</v>
-                </pt>
-                <pt idx="4">
-                  <v>0.25</v>
-                </pt>
-                <pt idx="5">
-                  <v>0.3</v>
-                </pt>
-                <pt idx="6">
-                  <v>0.35</v>
-                </pt>
-                <pt idx="7">
-                  <v>0.4</v>
-                </pt>
-                <pt idx="8">
-                  <v>0.45</v>
-                </pt>
-                <pt idx="9">
-                  <v>0.5</v>
-                </pt>
-              </numCache>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'my(1) без выбросов'!$B$6:$K$6</f>
-              <numCache>
-                <formatCode>General</formatCode>
-                <ptCount val="10"/>
-                <pt idx="0">
-                  <v>0.4212600428567062</v>
-                </pt>
-                <pt idx="1">
-                  <v>1.027472398584315</v>
-                </pt>
-                <pt idx="2">
-                  <v>1.371728589850799</v>
-                </pt>
-                <pt idx="3">
-                  <v>1.266595492480703</v>
-                </pt>
-                <pt idx="4">
-                  <v>1.55983955165748</v>
-                </pt>
-                <pt idx="5">
-                  <v>2.482381542553772</v>
-                </pt>
-                <pt idx="6">
-                  <v>2.37998049876842</v>
-                </pt>
-                <pt idx="7">
-                  <v>3.397193309684844</v>
-                </pt>
-                <pt idx="8">
-                  <v>3.079936769728052</v>
-                </pt>
-                <pt idx="9">
-                  <v>4.225360426930774</v>
-                </pt>
-              </numCache>
-            </numRef>
-          </val>
-          <smooth val="0"/>
-        </ser>
-        <ser>
-          <idx val="5"/>
-          <order val="5"/>
-          <tx>
-            <strRef>
-              <f>'my(1) без выбросов'!$A$7</f>
-              <strCache>
-                <ptCount val="1"/>
-                <pt idx="0">
-                  <v>МНК</v>
-                </pt>
               </strCache>
             </strRef>
           </tx>
@@ -7887,7 +8378,7 @@
           </marker>
           <cat>
             <numRef>
-              <f>'my(1) без выбросов'!$B$1:$K$1</f>
+              <f>'my(17)'!$B$1:$K$1</f>
               <numCache>
                 <formatCode>General</formatCode>
                 <ptCount val="10"/>
@@ -7907,59 +8398,17 @@
                   <v>0.25</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.3</v>
-                </pt>
-                <pt idx="6">
-                  <v>0.35</v>
-                </pt>
-                <pt idx="7">
-                  <v>0.4</v>
-                </pt>
-                <pt idx="8">
-                  <v>0.45</v>
-                </pt>
-                <pt idx="9">
-                  <v>0.5</v>
+                  <v>0.05</v>
                 </pt>
               </numCache>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'my(1) без выбросов'!$B$7:$K$7</f>
+              <f>'my(17)'!$B$7:$K$7</f>
               <numCache>
                 <formatCode>General</formatCode>
                 <ptCount val="10"/>
-                <pt idx="0">
-                  <v>0.4197109183780033</v>
-                </pt>
-                <pt idx="1">
-                  <v>0.7429688527425675</v>
-                </pt>
-                <pt idx="2">
-                  <v>1.109648797123472</v>
-                </pt>
-                <pt idx="3">
-                  <v>1.425279847327827</v>
-                </pt>
-                <pt idx="4">
-                  <v>1.855245118198369</v>
-                </pt>
-                <pt idx="5">
-                  <v>2.605548229098107</v>
-                </pt>
-                <pt idx="6">
-                  <v>2.613090897407484</v>
-                </pt>
-                <pt idx="7">
-                  <v>3.113374685860058</v>
-                </pt>
-                <pt idx="8">
-                  <v>3.506133825720407</v>
-                </pt>
-                <pt idx="9">
-                  <v>4.227068536409679</v>
-                </pt>
               </numCache>
             </numRef>
           </val>
@@ -8019,7 +8468,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t>None</a:t>
+              <a:t/>
             </a:r>
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
@@ -8081,7 +8530,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t>None</a:t>
+              <a:t/>
             </a:r>
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
@@ -8119,7 +8568,7 @@
             </a:defRPr>
           </a:pPr>
           <a:r>
-            <a:t>None</a:t>
+            <a:t/>
           </a:r>
           <a:endParaRPr lang="ru-RU"/>
         </a:p>
@@ -8131,7 +8580,7 @@
 </chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
@@ -8166,7 +8615,7 @@
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'my(2)'!$A$2</f>
+              <f>'my(1) без выбросов'!$A$2</f>
               <strCache>
                 <ptCount val="1"/>
                 <pt idx="0">
@@ -8194,7 +8643,7 @@
           </marker>
           <cat>
             <numRef>
-              <f>'my(2)'!$B$1:$K$1</f>
+              <f>'my(1) без выбросов'!$B$1:$K$1</f>
               <numCache>
                 <formatCode>General</formatCode>
                 <ptCount val="10"/>
@@ -8233,39 +8682,39 @@
           </cat>
           <val>
             <numRef>
-              <f>'my(2)'!$B$2:$K$2</f>
+              <f>'my(1) без выбросов'!$B$2:$K$2</f>
               <numCache>
                 <formatCode>General</formatCode>
                 <ptCount val="10"/>
                 <pt idx="0">
-                  <v>1.502344438956396</v>
+                  <v>0.3937252865123301</v>
                 </pt>
                 <pt idx="1">
-                  <v>1.90730423812199</v>
+                  <v>0.5944646335746482</v>
                 </pt>
                 <pt idx="2">
-                  <v>1.488724708914045</v>
+                  <v>0.9879105919633038</v>
                 </pt>
                 <pt idx="3">
-                  <v>1.886442997427965</v>
+                  <v>1.278366784264217</v>
                 </pt>
                 <pt idx="4">
-                  <v>1.702176842526532</v>
+                  <v>1.604396204496027</v>
                 </pt>
                 <pt idx="5">
-                  <v>2.606314202462713</v>
+                  <v>2.498689206029405</v>
                 </pt>
                 <pt idx="6">
-                  <v>2.743200163094729</v>
+                  <v>2.271064395751127</v>
                 </pt>
                 <pt idx="7">
-                  <v>3.072196785032518</v>
+                  <v>3.109935574759742</v>
                 </pt>
                 <pt idx="8">
-                  <v>3.764262424882633</v>
+                  <v>3.449102116567795</v>
                 </pt>
                 <pt idx="9">
-                  <v>3.9709624781508</v>
+                  <v>4.095744156263317</v>
                 </pt>
               </numCache>
             </numRef>
@@ -8277,7 +8726,7 @@
           <order val="1"/>
           <tx>
             <strRef>
-              <f>'my(2)'!$A$3</f>
+              <f>'my(1) без выбросов'!$A$3</f>
               <strCache>
                 <ptCount val="1"/>
                 <pt idx="0">
@@ -8305,7 +8754,7 @@
           </marker>
           <cat>
             <numRef>
-              <f>'my(2)'!$B$1:$K$1</f>
+              <f>'my(1) без выбросов'!$B$1:$K$1</f>
               <numCache>
                 <formatCode>General</formatCode>
                 <ptCount val="10"/>
@@ -8344,39 +8793,39 @@
           </cat>
           <val>
             <numRef>
-              <f>'my(2)'!$B$3:$K$3</f>
+              <f>'my(1) без выбросов'!$B$3:$K$3</f>
               <numCache>
                 <formatCode>General</formatCode>
                 <ptCount val="10"/>
                 <pt idx="0">
-                  <v>0.445784899655161</v>
+                  <v>0.3960934718616754</v>
                 </pt>
                 <pt idx="1">
-                  <v>1.314926975532916</v>
+                  <v>0.6988322108496818</v>
                 </pt>
                 <pt idx="2">
-                  <v>1.000687393263758</v>
+                  <v>0.6628054412029116</v>
                 </pt>
                 <pt idx="3">
-                  <v>1.022621302987997</v>
+                  <v>1.326135692437711</v>
                 </pt>
                 <pt idx="4">
-                  <v>1.483826994009582</v>
+                  <v>1.591078966043489</v>
                 </pt>
                 <pt idx="5">
-                  <v>2.813322849504869</v>
+                  <v>2.526187858158632</v>
                 </pt>
                 <pt idx="6">
-                  <v>2.571165324864601</v>
+                  <v>2.472653513616411</v>
                 </pt>
                 <pt idx="7">
-                  <v>3.072490468867215</v>
+                  <v>2.70978442191904</v>
                 </pt>
                 <pt idx="8">
-                  <v>3.735100547748385</v>
+                  <v>3.204760839782293</v>
                 </pt>
                 <pt idx="9">
-                  <v>4.974752252501438</v>
+                  <v>4.365885938869546</v>
                 </pt>
               </numCache>
             </numRef>
@@ -8388,7 +8837,7 @@
           <order val="2"/>
           <tx>
             <strRef>
-              <f>'my(2)'!$A$4</f>
+              <f>'my(1) без выбросов'!$A$4</f>
               <strCache>
                 <ptCount val="1"/>
                 <pt idx="0">
@@ -8416,7 +8865,7 @@
           </marker>
           <cat>
             <numRef>
-              <f>'my(2)'!$B$1:$K$1</f>
+              <f>'my(1) без выбросов'!$B$1:$K$1</f>
               <numCache>
                 <formatCode>General</formatCode>
                 <ptCount val="10"/>
@@ -8455,39 +8904,39 @@
           </cat>
           <val>
             <numRef>
-              <f>'my(2)'!$B$4:$K$4</f>
+              <f>'my(1) без выбросов'!$B$4:$K$4</f>
               <numCache>
                 <formatCode>General</formatCode>
                 <ptCount val="10"/>
                 <pt idx="0">
-                  <v>0.3264108700425276</v>
+                  <v>0.4027566771163397</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.7484335008528459</v>
+                  <v>0.5907304292447854</v>
                 </pt>
                 <pt idx="2">
-                  <v>1.445411418241026</v>
+                  <v>0.9703071169334373</v>
                 </pt>
                 <pt idx="3">
-                  <v>1.083053159756497</v>
+                  <v>1.28735655025252</v>
                 </pt>
                 <pt idx="4">
-                  <v>2.018723370613149</v>
+                  <v>1.730046557793056</v>
                 </pt>
                 <pt idx="5">
-                  <v>2.731801418628996</v>
+                  <v>2.359003067084978</v>
                 </pt>
                 <pt idx="6">
-                  <v>2.734199148389481</v>
+                  <v>2.441061289920097</v>
                 </pt>
                 <pt idx="7">
-                  <v>3.078613724068461</v>
+                  <v>2.987798260753872</v>
                 </pt>
                 <pt idx="8">
-                  <v>3.660018976825106</v>
+                  <v>3.226469053239396</v>
                 </pt>
                 <pt idx="9">
-                  <v>4.060185519523077</v>
+                  <v>4.311081211320632</v>
                 </pt>
               </numCache>
             </numRef>
@@ -8499,7 +8948,7 @@
           <order val="3"/>
           <tx>
             <strRef>
-              <f>'my(2)'!$A$5</f>
+              <f>'my(1) без выбросов'!$A$5</f>
               <strCache>
                 <ptCount val="1"/>
                 <pt idx="0">
@@ -8527,7 +8976,7 @@
           </marker>
           <cat>
             <numRef>
-              <f>'my(2)'!$B$1:$K$1</f>
+              <f>'my(1) без выбросов'!$B$1:$K$1</f>
               <numCache>
                 <formatCode>General</formatCode>
                 <ptCount val="10"/>
@@ -8566,39 +9015,39 @@
           </cat>
           <val>
             <numRef>
-              <f>'my(2)'!$B$5:$K$5</f>
+              <f>'my(1) без выбросов'!$B$5:$K$5</f>
               <numCache>
                 <formatCode>General</formatCode>
                 <ptCount val="10"/>
                 <pt idx="0">
-                  <v>3.328527187605736</v>
+                  <v>0.3849742776127866</v>
                 </pt>
                 <pt idx="1">
-                  <v>1.235001977038272</v>
+                  <v>0.6299552931079169</v>
                 </pt>
                 <pt idx="2">
-                  <v>1.464646569746257</v>
+                  <v>0.9895182897328403</v>
                 </pt>
                 <pt idx="3">
-                  <v>1.90761646172217</v>
+                  <v>1.244613811614171</v>
                 </pt>
                 <pt idx="4">
-                  <v>2.671391010409735</v>
+                  <v>1.498308952178846</v>
                 </pt>
                 <pt idx="5">
-                  <v>2.415467697529545</v>
+                  <v>2.508301695497039</v>
                 </pt>
                 <pt idx="6">
-                  <v>2.734184224769312</v>
+                  <v>2.377170868281043</v>
                 </pt>
                 <pt idx="7">
-                  <v>3.072283554145969</v>
+                  <v>3.106568769089488</v>
                 </pt>
                 <pt idx="8">
-                  <v>3.21692243586314</v>
+                  <v>3.445166486273438</v>
                 </pt>
                 <pt idx="9">
-                  <v>3.336926025365739</v>
+                  <v>3.941977669022029</v>
                 </pt>
               </numCache>
             </numRef>
@@ -8610,7 +9059,7 @@
           <order val="4"/>
           <tx>
             <strRef>
-              <f>'my(2)'!$A$6</f>
+              <f>'my(1) без выбросов'!$A$6</f>
               <strCache>
                 <ptCount val="1"/>
                 <pt idx="0">
@@ -8638,7 +9087,7 @@
           </marker>
           <cat>
             <numRef>
-              <f>'my(2)'!$B$1:$K$1</f>
+              <f>'my(1) без выбросов'!$B$1:$K$1</f>
               <numCache>
                 <formatCode>General</formatCode>
                 <ptCount val="10"/>
@@ -8677,39 +9126,39 @@
           </cat>
           <val>
             <numRef>
-              <f>'my(2)'!$B$6:$K$6</f>
+              <f>'my(1) без выбросов'!$B$6:$K$6</f>
               <numCache>
                 <formatCode>General</formatCode>
                 <ptCount val="10"/>
                 <pt idx="0">
-                  <v>1.572530592255522</v>
+                  <v>0.4212600428567062</v>
                 </pt>
                 <pt idx="1">
-                  <v>1.282595045126722</v>
+                  <v>1.027472398584315</v>
                 </pt>
                 <pt idx="2">
-                  <v>1.184533567105562</v>
+                  <v>1.371728589850799</v>
                 </pt>
                 <pt idx="3">
-                  <v>1.613623127647483</v>
+                  <v>1.266595492480703</v>
                 </pt>
                 <pt idx="4">
-                  <v>1.985506830112769</v>
+                  <v>1.55983955165748</v>
                 </pt>
                 <pt idx="5">
-                  <v>2.616318087311104</v>
+                  <v>2.482381542553772</v>
                 </pt>
                 <pt idx="6">
-                  <v>2.937442043783309</v>
+                  <v>2.37998049876842</v>
                 </pt>
                 <pt idx="7">
-                  <v>3.476813907419721</v>
+                  <v>3.397193309684844</v>
                 </pt>
                 <pt idx="8">
-                  <v>3.812857647330329</v>
+                  <v>3.079936769728052</v>
                 </pt>
                 <pt idx="9">
-                  <v>3.869272938529706</v>
+                  <v>4.225360426930774</v>
                 </pt>
               </numCache>
             </numRef>
@@ -8721,7 +9170,7 @@
           <order val="5"/>
           <tx>
             <strRef>
-              <f>'my(2)'!$A$7</f>
+              <f>'my(1) без выбросов'!$A$7</f>
               <strCache>
                 <ptCount val="1"/>
                 <pt idx="0">
@@ -8749,7 +9198,7 @@
           </marker>
           <cat>
             <numRef>
-              <f>'my(2)'!$B$1:$K$1</f>
+              <f>'my(1) без выбросов'!$B$1:$K$1</f>
               <numCache>
                 <formatCode>General</formatCode>
                 <ptCount val="10"/>
@@ -8788,39 +9237,39 @@
           </cat>
           <val>
             <numRef>
-              <f>'my(2)'!$B$7:$K$7</f>
+              <f>'my(1) без выбросов'!$B$7:$K$7</f>
               <numCache>
                 <formatCode>General</formatCode>
                 <ptCount val="10"/>
                 <pt idx="0">
-                  <v>1.579945108082949</v>
+                  <v>0.4197109183780033</v>
                 </pt>
                 <pt idx="1">
-                  <v>1.740024160017614</v>
+                  <v>0.7429688527425675</v>
                 </pt>
                 <pt idx="2">
-                  <v>1.464765908859041</v>
+                  <v>1.109648797123472</v>
                 </pt>
                 <pt idx="3">
-                  <v>1.863983340553704</v>
+                  <v>1.425279847327827</v>
                 </pt>
                 <pt idx="4">
-                  <v>2.628540765081434</v>
+                  <v>1.855245118198369</v>
                 </pt>
                 <pt idx="5">
-                  <v>2.706419166635233</v>
+                  <v>2.605548229098107</v>
                 </pt>
                 <pt idx="6">
-                  <v>2.904026884565971</v>
+                  <v>2.613090897407484</v>
                 </pt>
                 <pt idx="7">
-                  <v>3.588708824789802</v>
+                  <v>3.113374685860058</v>
                 </pt>
                 <pt idx="8">
-                  <v>3.770045881220164</v>
+                  <v>3.506133825720407</v>
                 </pt>
                 <pt idx="9">
-                  <v>3.99413172274538</v>
+                  <v>4.227068536409679</v>
                 </pt>
               </numCache>
             </numRef>
@@ -8881,7 +9330,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t>None</a:t>
+              <a:t/>
             </a:r>
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
@@ -8943,7 +9392,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t>None</a:t>
+              <a:t/>
             </a:r>
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
@@ -8981,7 +9430,7 @@
             </a:defRPr>
           </a:pPr>
           <a:r>
-            <a:t>None</a:t>
+            <a:t/>
           </a:r>
           <a:endParaRPr lang="ru-RU"/>
         </a:p>
@@ -8993,7 +9442,7 @@
 </chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
@@ -9028,7 +9477,7 @@
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'my(3)'!$A$2</f>
+              <f>'my(2)'!$A$2</f>
               <strCache>
                 <ptCount val="1"/>
                 <pt idx="0">
@@ -9056,78 +9505,78 @@
           </marker>
           <cat>
             <numRef>
-              <f>'my(3)'!$B$1:$K$1</f>
+              <f>'my(2)'!$B$1:$K$1</f>
               <numCache>
                 <formatCode>General</formatCode>
                 <ptCount val="10"/>
                 <pt idx="0">
-                  <v>0.1</v>
+                  <v>0.05</v>
                 </pt>
                 <pt idx="1">
                   <v>0.1</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.1</v>
+                  <v>0.15</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.1</v>
+                  <v>0.2</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.1</v>
+                  <v>0.25</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.1</v>
+                  <v>0.3</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.1</v>
+                  <v>0.35</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.1</v>
+                  <v>0.4</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.1</v>
+                  <v>0.45</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.1</v>
+                  <v>0.5</v>
                 </pt>
               </numCache>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'my(3)'!$B$2:$K$2</f>
+              <f>'my(2)'!$B$2:$K$2</f>
               <numCache>
                 <formatCode>General</formatCode>
                 <ptCount val="10"/>
                 <pt idx="0">
-                  <v>0.6290181658520223</v>
+                  <v>1.502344438956396</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.9547410625450554</v>
+                  <v>1.90730423812199</v>
                 </pt>
                 <pt idx="2">
-                  <v>2.007376740043671</v>
+                  <v>1.488724708914045</v>
                 </pt>
                 <pt idx="3">
-                  <v>2.23886136324793</v>
+                  <v>1.886442997427965</v>
                 </pt>
                 <pt idx="4">
-                  <v>3.420999221160293</v>
+                  <v>1.702176842526532</v>
                 </pt>
                 <pt idx="5">
-                  <v>3.026369491912441</v>
+                  <v>2.606314202462713</v>
                 </pt>
                 <pt idx="6">
-                  <v>4.764594129253664</v>
+                  <v>2.743200163094729</v>
                 </pt>
                 <pt idx="7">
-                  <v>2.524927441976407</v>
+                  <v>3.072196785032518</v>
                 </pt>
                 <pt idx="8">
-                  <v>4.238314945238981</v>
+                  <v>3.764262424882633</v>
                 </pt>
                 <pt idx="9">
-                  <v>4.131934065213962</v>
+                  <v>3.9709624781508</v>
                 </pt>
               </numCache>
             </numRef>
@@ -9139,7 +9588,7 @@
           <order val="1"/>
           <tx>
             <strRef>
-              <f>'my(3)'!$A$3</f>
+              <f>'my(2)'!$A$3</f>
               <strCache>
                 <ptCount val="1"/>
                 <pt idx="0">
@@ -9167,78 +9616,78 @@
           </marker>
           <cat>
             <numRef>
-              <f>'my(3)'!$B$1:$K$1</f>
+              <f>'my(2)'!$B$1:$K$1</f>
               <numCache>
                 <formatCode>General</formatCode>
                 <ptCount val="10"/>
                 <pt idx="0">
-                  <v>0.1</v>
+                  <v>0.05</v>
                 </pt>
                 <pt idx="1">
                   <v>0.1</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.1</v>
+                  <v>0.15</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.1</v>
+                  <v>0.2</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.1</v>
+                  <v>0.25</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.1</v>
+                  <v>0.3</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.1</v>
+                  <v>0.35</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.1</v>
+                  <v>0.4</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.1</v>
+                  <v>0.45</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.1</v>
+                  <v>0.5</v>
                 </pt>
               </numCache>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'my(3)'!$B$3:$K$3</f>
+              <f>'my(2)'!$B$3:$K$3</f>
               <numCache>
                 <formatCode>General</formatCode>
                 <ptCount val="10"/>
                 <pt idx="0">
-                  <v>0.6365283314047848</v>
+                  <v>0.445784899655161</v>
                 </pt>
                 <pt idx="1">
-                  <v>1.012286200815641</v>
+                  <v>1.314926975532916</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.8793291739727287</v>
+                  <v>1.000687393263758</v>
                 </pt>
                 <pt idx="3">
-                  <v>1.379924385033932</v>
+                  <v>1.022621302987997</v>
                 </pt>
                 <pt idx="4">
-                  <v>2.877391232410853</v>
+                  <v>1.483826994009582</v>
                 </pt>
                 <pt idx="5">
-                  <v>3.904590947611716</v>
+                  <v>2.813322849504869</v>
                 </pt>
                 <pt idx="6">
-                  <v>3.763112716168548</v>
+                  <v>2.571165324864601</v>
                 </pt>
                 <pt idx="7">
-                  <v>1.956049725521309</v>
+                  <v>3.072490468867215</v>
                 </pt>
                 <pt idx="8">
-                  <v>4.251424062075587</v>
+                  <v>3.735100547748385</v>
                 </pt>
                 <pt idx="9">
-                  <v>4.621203563843158</v>
+                  <v>4.974752252501438</v>
                 </pt>
               </numCache>
             </numRef>
@@ -9250,7 +9699,7 @@
           <order val="2"/>
           <tx>
             <strRef>
-              <f>'my(3)'!$A$4</f>
+              <f>'my(2)'!$A$4</f>
               <strCache>
                 <ptCount val="1"/>
                 <pt idx="0">
@@ -9278,78 +9727,78 @@
           </marker>
           <cat>
             <numRef>
-              <f>'my(3)'!$B$1:$K$1</f>
+              <f>'my(2)'!$B$1:$K$1</f>
               <numCache>
                 <formatCode>General</formatCode>
                 <ptCount val="10"/>
                 <pt idx="0">
-                  <v>0.1</v>
+                  <v>0.05</v>
                 </pt>
                 <pt idx="1">
                   <v>0.1</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.1</v>
+                  <v>0.15</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.1</v>
+                  <v>0.2</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.1</v>
+                  <v>0.25</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.1</v>
+                  <v>0.3</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.1</v>
+                  <v>0.35</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.1</v>
+                  <v>0.4</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.1</v>
+                  <v>0.45</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.1</v>
+                  <v>0.5</v>
                 </pt>
               </numCache>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'my(3)'!$B$4:$K$4</f>
+              <f>'my(2)'!$B$4:$K$4</f>
               <numCache>
                 <formatCode>General</formatCode>
                 <ptCount val="10"/>
                 <pt idx="0">
-                  <v>0.6534237471368766</v>
+                  <v>0.3264108700425276</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.9476769230878594</v>
+                  <v>0.7484335008528459</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.8022873469576233</v>
+                  <v>1.445411418241026</v>
                 </pt>
                 <pt idx="3">
-                  <v>1.042832426160619</v>
+                  <v>1.083053159756497</v>
                 </pt>
                 <pt idx="4">
-                  <v>4.350804077390501</v>
+                  <v>2.018723370613149</v>
                 </pt>
                 <pt idx="5">
-                  <v>2.959817896940087</v>
+                  <v>2.731801418628996</v>
                 </pt>
                 <pt idx="6">
-                  <v>2.573937971520623</v>
+                  <v>2.734199148389481</v>
                 </pt>
                 <pt idx="7">
-                  <v>3.189805940596309</v>
+                  <v>3.078613724068461</v>
                 </pt>
                 <pt idx="8">
-                  <v>4.746338678634432</v>
+                  <v>3.660018976825106</v>
                 </pt>
                 <pt idx="9">
-                  <v>4.151670532071797</v>
+                  <v>4.060185519523077</v>
                 </pt>
               </numCache>
             </numRef>
@@ -9361,7 +9810,7 @@
           <order val="3"/>
           <tx>
             <strRef>
-              <f>'my(3)'!$A$5</f>
+              <f>'my(2)'!$A$5</f>
               <strCache>
                 <ptCount val="1"/>
                 <pt idx="0">
@@ -9389,78 +9838,78 @@
           </marker>
           <cat>
             <numRef>
-              <f>'my(3)'!$B$1:$K$1</f>
+              <f>'my(2)'!$B$1:$K$1</f>
               <numCache>
                 <formatCode>General</formatCode>
                 <ptCount val="10"/>
                 <pt idx="0">
-                  <v>0.1</v>
+                  <v>0.05</v>
                 </pt>
                 <pt idx="1">
                   <v>0.1</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.1</v>
+                  <v>0.15</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.1</v>
+                  <v>0.2</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.1</v>
+                  <v>0.25</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.1</v>
+                  <v>0.3</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.1</v>
+                  <v>0.35</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.1</v>
+                  <v>0.4</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.1</v>
+                  <v>0.45</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.1</v>
+                  <v>0.5</v>
                 </pt>
               </numCache>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'my(3)'!$B$5:$K$5</f>
+              <f>'my(2)'!$B$5:$K$5</f>
               <numCache>
                 <formatCode>General</formatCode>
                 <ptCount val="10"/>
                 <pt idx="0">
-                  <v>4.491746011703938</v>
+                  <v>3.328527187605736</v>
                 </pt>
                 <pt idx="1">
-                  <v>2.074947341433289</v>
+                  <v>1.235001977038272</v>
                 </pt>
                 <pt idx="2">
-                  <v>1.672537950740876</v>
+                  <v>1.464646569746257</v>
                 </pt>
                 <pt idx="3">
-                  <v>1.759309901811807</v>
+                  <v>1.90761646172217</v>
                 </pt>
                 <pt idx="4">
-                  <v>3.534586850063777</v>
+                  <v>2.671391010409735</v>
                 </pt>
                 <pt idx="5">
-                  <v>3.011347054857391</v>
+                  <v>2.415467697529545</v>
                 </pt>
                 <pt idx="6">
-                  <v>4.553672022119255</v>
+                  <v>2.734184224769312</v>
                 </pt>
                 <pt idx="7">
-                  <v>1.423367296222902</v>
+                  <v>3.072283554145969</v>
                 </pt>
                 <pt idx="8">
-                  <v>4.269863439511341</v>
+                  <v>3.21692243586314</v>
                 </pt>
                 <pt idx="9">
-                  <v>3.252121651837409</v>
+                  <v>3.336926025365739</v>
                 </pt>
               </numCache>
             </numRef>
@@ -9472,7 +9921,7 @@
           <order val="4"/>
           <tx>
             <strRef>
-              <f>'my(3)'!$A$6</f>
+              <f>'my(2)'!$A$6</f>
               <strCache>
                 <ptCount val="1"/>
                 <pt idx="0">
@@ -9500,78 +9949,78 @@
           </marker>
           <cat>
             <numRef>
-              <f>'my(3)'!$B$1:$K$1</f>
+              <f>'my(2)'!$B$1:$K$1</f>
               <numCache>
                 <formatCode>General</formatCode>
                 <ptCount val="10"/>
                 <pt idx="0">
-                  <v>0.1</v>
+                  <v>0.05</v>
                 </pt>
                 <pt idx="1">
                   <v>0.1</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.1</v>
+                  <v>0.15</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.1</v>
+                  <v>0.2</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.1</v>
+                  <v>0.25</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.1</v>
+                  <v>0.3</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.1</v>
+                  <v>0.35</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.1</v>
+                  <v>0.4</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.1</v>
+                  <v>0.45</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.1</v>
+                  <v>0.5</v>
                 </pt>
               </numCache>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'my(3)'!$B$6:$K$6</f>
+              <f>'my(2)'!$B$6:$K$6</f>
               <numCache>
                 <formatCode>General</formatCode>
                 <ptCount val="10"/>
                 <pt idx="0">
-                  <v>1.778966792232017</v>
+                  <v>1.572530592255522</v>
                 </pt>
                 <pt idx="1">
-                  <v>1.014002862461038</v>
+                  <v>1.282595045126722</v>
                 </pt>
                 <pt idx="2">
-                  <v>1.628340278577006</v>
+                  <v>1.184533567105562</v>
                 </pt>
                 <pt idx="3">
-                  <v>1.612278632914572</v>
+                  <v>1.613623127647483</v>
                 </pt>
                 <pt idx="4">
-                  <v>3.218736970812001</v>
+                  <v>1.985506830112769</v>
                 </pt>
                 <pt idx="5">
-                  <v>3.317588660368976</v>
+                  <v>2.616318087311104</v>
                 </pt>
                 <pt idx="6">
-                  <v>3.836842813378707</v>
+                  <v>2.937442043783309</v>
                 </pt>
                 <pt idx="7">
-                  <v>2.436124341694643</v>
+                  <v>3.476813907419721</v>
                 </pt>
                 <pt idx="8">
-                  <v>4.180407450878861</v>
+                  <v>3.812857647330329</v>
                 </pt>
                 <pt idx="9">
-                  <v>6.375828885940603</v>
+                  <v>3.869272938529706</v>
                 </pt>
               </numCache>
             </numRef>
@@ -9583,7 +10032,7 @@
           <order val="5"/>
           <tx>
             <strRef>
-              <f>'my(3)'!$A$7</f>
+              <f>'my(2)'!$A$7</f>
               <strCache>
                 <ptCount val="1"/>
                 <pt idx="0">
@@ -9611,78 +10060,78 @@
           </marker>
           <cat>
             <numRef>
-              <f>'my(3)'!$B$1:$K$1</f>
+              <f>'my(2)'!$B$1:$K$1</f>
               <numCache>
                 <formatCode>General</formatCode>
                 <ptCount val="10"/>
                 <pt idx="0">
-                  <v>0.1</v>
+                  <v>0.05</v>
                 </pt>
                 <pt idx="1">
                   <v>0.1</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.1</v>
+                  <v>0.15</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.1</v>
+                  <v>0.2</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.1</v>
+                  <v>0.25</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.1</v>
+                  <v>0.3</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.1</v>
+                  <v>0.35</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.1</v>
+                  <v>0.4</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.1</v>
+                  <v>0.45</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.1</v>
+                  <v>0.5</v>
                 </pt>
               </numCache>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'my(3)'!$B$7:$K$7</f>
+              <f>'my(2)'!$B$7:$K$7</f>
               <numCache>
                 <formatCode>General</formatCode>
                 <ptCount val="10"/>
                 <pt idx="0">
-                  <v>1.703624152611879</v>
+                  <v>1.579945108082949</v>
                 </pt>
                 <pt idx="1">
-                  <v>1.26630601412698</v>
+                  <v>1.740024160017614</v>
                 </pt>
                 <pt idx="2">
-                  <v>1.557685957660593</v>
+                  <v>1.464765908859041</v>
                 </pt>
                 <pt idx="3">
-                  <v>1.764437973206383</v>
+                  <v>1.863983340553704</v>
                 </pt>
                 <pt idx="4">
-                  <v>3.034163330164354</v>
+                  <v>2.628540765081434</v>
                 </pt>
                 <pt idx="5">
-                  <v>3.305136158069822</v>
+                  <v>2.706419166635233</v>
                 </pt>
                 <pt idx="6">
-                  <v>3.361534031152552</v>
+                  <v>2.904026884565971</v>
                 </pt>
                 <pt idx="7">
-                  <v>2.815291937326898</v>
+                  <v>3.588708824789802</v>
                 </pt>
                 <pt idx="8">
-                  <v>4.143141202189271</v>
+                  <v>3.770045881220164</v>
                 </pt>
                 <pt idx="9">
-                  <v>3.837227979028999</v>
+                  <v>3.99413172274538</v>
                 </pt>
               </numCache>
             </numRef>
@@ -9743,7 +10192,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t>None</a:t>
+              <a:t/>
             </a:r>
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
@@ -9805,7 +10254,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t>None</a:t>
+              <a:t/>
             </a:r>
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
@@ -9843,7 +10292,7 @@
             </a:defRPr>
           </a:pPr>
           <a:r>
-            <a:t>None</a:t>
+            <a:t/>
           </a:r>
           <a:endParaRPr lang="ru-RU"/>
         </a:p>
@@ -9855,7 +10304,7 @@
 </chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
@@ -9890,7 +10339,7 @@
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'my(4)'!$A$2</f>
+              <f>'my(3)'!$A$2</f>
               <strCache>
                 <ptCount val="1"/>
                 <pt idx="0">
@@ -9918,7 +10367,7 @@
           </marker>
           <cat>
             <numRef>
-              <f>'my(4)'!$B$1:$K$1</f>
+              <f>'my(3)'!$B$1:$K$1</f>
               <numCache>
                 <formatCode>General</formatCode>
                 <ptCount val="10"/>
@@ -9957,39 +10406,39 @@
           </cat>
           <val>
             <numRef>
-              <f>'my(4)'!$B$2:$K$2</f>
+              <f>'my(3)'!$B$2:$K$2</f>
               <numCache>
                 <formatCode>General</formatCode>
                 <ptCount val="10"/>
                 <pt idx="0">
-                  <v>0.7944929001178604</v>
+                  <v>0.6290181658520223</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.5778204764677325</v>
+                  <v>0.9547410625450554</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.755851830798817</v>
+                  <v>2.007376740043671</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.6744330207768494</v>
+                  <v>2.23886136324793</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.7441519701320974</v>
+                  <v>3.420999221160293</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.989040732306616</v>
+                  <v>3.026369491912441</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.7642524572119027</v>
+                  <v>4.764594129253664</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.755311232399448</v>
+                  <v>2.524927441976407</v>
                 </pt>
                 <pt idx="8">
-                  <v>1.082635098252014</v>
+                  <v>4.238314945238981</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.9209803624885335</v>
+                  <v>4.131934065213962</v>
                 </pt>
               </numCache>
             </numRef>
@@ -10001,7 +10450,7 @@
           <order val="1"/>
           <tx>
             <strRef>
-              <f>'my(4)'!$A$3</f>
+              <f>'my(3)'!$A$3</f>
               <strCache>
                 <ptCount val="1"/>
                 <pt idx="0">
@@ -10029,7 +10478,7 @@
           </marker>
           <cat>
             <numRef>
-              <f>'my(4)'!$B$1:$K$1</f>
+              <f>'my(3)'!$B$1:$K$1</f>
               <numCache>
                 <formatCode>General</formatCode>
                 <ptCount val="10"/>
@@ -10068,39 +10517,39 @@
           </cat>
           <val>
             <numRef>
-              <f>'my(4)'!$B$3:$K$3</f>
+              <f>'my(3)'!$B$3:$K$3</f>
               <numCache>
                 <formatCode>General</formatCode>
                 <ptCount val="10"/>
                 <pt idx="0">
-                  <v>0.5215162801365547</v>
+                  <v>0.6365283314047848</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.4212298208870419</v>
+                  <v>1.012286200815641</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.8530012600949582</v>
+                  <v>0.8793291739727287</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.8233028928218159</v>
+                  <v>1.379924385033932</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.9403952974619063</v>
+                  <v>2.877391232410853</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.8352139710020599</v>
+                  <v>3.904590947611716</v>
                 </pt>
                 <pt idx="6">
-                  <v>1.031700270593044</v>
+                  <v>3.763112716168548</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.7901705034704107</v>
+                  <v>1.956049725521309</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.7897234986575972</v>
+                  <v>4.251424062075587</v>
                 </pt>
                 <pt idx="9">
-                  <v>1.145774720727006</v>
+                  <v>4.621203563843158</v>
                 </pt>
               </numCache>
             </numRef>
@@ -10112,7 +10561,7 @@
           <order val="2"/>
           <tx>
             <strRef>
-              <f>'my(4)'!$A$4</f>
+              <f>'my(3)'!$A$4</f>
               <strCache>
                 <ptCount val="1"/>
                 <pt idx="0">
@@ -10140,7 +10589,7 @@
           </marker>
           <cat>
             <numRef>
-              <f>'my(4)'!$B$1:$K$1</f>
+              <f>'my(3)'!$B$1:$K$1</f>
               <numCache>
                 <formatCode>General</formatCode>
                 <ptCount val="10"/>
@@ -10179,39 +10628,39 @@
           </cat>
           <val>
             <numRef>
-              <f>'my(4)'!$B$4:$K$4</f>
+              <f>'my(3)'!$B$4:$K$4</f>
               <numCache>
                 <formatCode>General</formatCode>
                 <ptCount val="10"/>
                 <pt idx="0">
-                  <v>0.3443539848617393</v>
+                  <v>0.6534237471368766</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.3356178222171056</v>
+                  <v>0.9476769230878594</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.5668998833804955</v>
+                  <v>0.8022873469576233</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.7007240084324398</v>
+                  <v>1.042832426160619</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.8628825566840128</v>
+                  <v>4.350804077390501</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.7270975190771221</v>
+                  <v>2.959817896940087</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.63284091842568</v>
+                  <v>2.573937971520623</v>
                 </pt>
                 <pt idx="7">
-                  <v>1.121949513654747</v>
+                  <v>3.189805940596309</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.8047633192318353</v>
+                  <v>4.746338678634432</v>
                 </pt>
                 <pt idx="9">
-                  <v>1.107861521437246</v>
+                  <v>4.151670532071797</v>
                 </pt>
               </numCache>
             </numRef>
@@ -10223,7 +10672,7 @@
           <order val="3"/>
           <tx>
             <strRef>
-              <f>'my(4)'!$A$5</f>
+              <f>'my(3)'!$A$5</f>
               <strCache>
                 <ptCount val="1"/>
                 <pt idx="0">
@@ -10251,7 +10700,7 @@
           </marker>
           <cat>
             <numRef>
-              <f>'my(4)'!$B$1:$K$1</f>
+              <f>'my(3)'!$B$1:$K$1</f>
               <numCache>
                 <formatCode>General</formatCode>
                 <ptCount val="10"/>
@@ -10290,39 +10739,39 @@
           </cat>
           <val>
             <numRef>
-              <f>'my(4)'!$B$5:$K$5</f>
+              <f>'my(3)'!$B$5:$K$5</f>
               <numCache>
                 <formatCode>General</formatCode>
                 <ptCount val="10"/>
                 <pt idx="0">
-                  <v>0.5875437875766534</v>
+                  <v>4.491746011703938</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.4982457516252659</v>
+                  <v>2.074947341433289</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.656005813039321</v>
+                  <v>1.672537950740876</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.7266169331435212</v>
+                  <v>1.759309901811807</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.6822280408882271</v>
+                  <v>3.534586850063777</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.7619705981264614</v>
+                  <v>3.011347054857391</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.9914918193890022</v>
+                  <v>4.553672022119255</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.8167538312765797</v>
+                  <v>1.423367296222902</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.8781602948688511</v>
+                  <v>4.269863439511341</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.8681745870596632</v>
+                  <v>3.252121651837409</v>
                 </pt>
               </numCache>
             </numRef>
@@ -10334,7 +10783,118 @@
           <order val="4"/>
           <tx>
             <strRef>
-              <f>'my(4)'!$A$7</f>
+              <f>'my(3)'!$A$6</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>Фурье</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'my(3)'!$B$1:$K$1</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="10"/>
+                <pt idx="0">
+                  <v>0.1</v>
+                </pt>
+                <pt idx="1">
+                  <v>0.1</v>
+                </pt>
+                <pt idx="2">
+                  <v>0.1</v>
+                </pt>
+                <pt idx="3">
+                  <v>0.1</v>
+                </pt>
+                <pt idx="4">
+                  <v>0.1</v>
+                </pt>
+                <pt idx="5">
+                  <v>0.1</v>
+                </pt>
+                <pt idx="6">
+                  <v>0.1</v>
+                </pt>
+                <pt idx="7">
+                  <v>0.1</v>
+                </pt>
+                <pt idx="8">
+                  <v>0.1</v>
+                </pt>
+                <pt idx="9">
+                  <v>0.1</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'my(3)'!$B$6:$K$6</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="10"/>
+                <pt idx="0">
+                  <v>1.778966792232017</v>
+                </pt>
+                <pt idx="1">
+                  <v>1.014002862461038</v>
+                </pt>
+                <pt idx="2">
+                  <v>1.628340278577006</v>
+                </pt>
+                <pt idx="3">
+                  <v>1.612278632914572</v>
+                </pt>
+                <pt idx="4">
+                  <v>3.218736970812001</v>
+                </pt>
+                <pt idx="5">
+                  <v>3.317588660368976</v>
+                </pt>
+                <pt idx="6">
+                  <v>3.836842813378707</v>
+                </pt>
+                <pt idx="7">
+                  <v>2.436124341694643</v>
+                </pt>
+                <pt idx="8">
+                  <v>4.180407450878861</v>
+                </pt>
+                <pt idx="9">
+                  <v>6.375828885940603</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </val>
+          <smooth val="0"/>
+        </ser>
+        <ser>
+          <idx val="5"/>
+          <order val="5"/>
+          <tx>
+            <strRef>
+              <f>'my(3)'!$A$7</f>
               <strCache>
                 <ptCount val="1"/>
                 <pt idx="0">
@@ -10362,7 +10922,7 @@
           </marker>
           <cat>
             <numRef>
-              <f>'my(4)'!$B$1:$K$1</f>
+              <f>'my(3)'!$B$1:$K$1</f>
               <numCache>
                 <formatCode>General</formatCode>
                 <ptCount val="10"/>
@@ -10401,39 +10961,39 @@
           </cat>
           <val>
             <numRef>
-              <f>'my(4)'!$B$7:$K$7</f>
+              <f>'my(3)'!$B$7:$K$7</f>
               <numCache>
                 <formatCode>General</formatCode>
                 <ptCount val="10"/>
                 <pt idx="0">
-                  <v>0.3121923602016073</v>
+                  <v>1.703624152611879</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.3200375408941374</v>
+                  <v>1.26630601412698</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.5707194820805465</v>
+                  <v>1.557685957660593</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.6272634364899135</v>
+                  <v>1.764437973206383</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.5725690089325596</v>
+                  <v>3.034163330164354</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.626484751369206</v>
+                  <v>3.305136158069822</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.6762810618037258</v>
+                  <v>3.361534031152552</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.6393023375206159</v>
+                  <v>2.815291937326898</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.713031187381308</v>
+                  <v>4.143141202189271</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.8258325514116465</v>
+                  <v>3.837227979028999</v>
                 </pt>
               </numCache>
             </numRef>
@@ -10494,7 +11054,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t>None</a:t>
+              <a:t/>
             </a:r>
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
@@ -10556,7 +11116,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t>None</a:t>
+              <a:t/>
             </a:r>
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
@@ -10594,7 +11154,7 @@
             </a:defRPr>
           </a:pPr>
           <a:r>
-            <a:t>None</a:t>
+            <a:t/>
           </a:r>
           <a:endParaRPr lang="ru-RU"/>
         </a:p>
@@ -10606,7 +11166,7 @@
 </chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
@@ -10641,7 +11201,7 @@
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'my(5)'!$A$2</f>
+              <f>'my(4)'!$A$2</f>
               <strCache>
                 <ptCount val="1"/>
                 <pt idx="0">
@@ -10669,42 +11229,78 @@
           </marker>
           <cat>
             <numRef>
-              <f>'my(5)'!$B$1:$K$1</f>
+              <f>'my(4)'!$B$1:$K$1</f>
               <numCache>
                 <formatCode>General</formatCode>
                 <ptCount val="10"/>
                 <pt idx="0">
-                  <v>0.05</v>
+                  <v>0.1</v>
                 </pt>
                 <pt idx="1">
                   <v>0.1</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.15</v>
+                  <v>0.1</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.2</v>
+                  <v>0.1</v>
+                </pt>
+                <pt idx="4">
+                  <v>0.1</v>
+                </pt>
+                <pt idx="5">
+                  <v>0.1</v>
+                </pt>
+                <pt idx="6">
+                  <v>0.1</v>
+                </pt>
+                <pt idx="7">
+                  <v>0.1</v>
+                </pt>
+                <pt idx="8">
+                  <v>0.1</v>
+                </pt>
+                <pt idx="9">
+                  <v>0.1</v>
                 </pt>
               </numCache>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'my(5)'!$B$2:$K$2</f>
+              <f>'my(4)'!$B$2:$K$2</f>
               <numCache>
                 <formatCode>General</formatCode>
                 <ptCount val="10"/>
                 <pt idx="0">
-                  <v>0.2503120980829368</v>
+                  <v>0.7944929001178604</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.1893045245243586</v>
+                  <v>0.5778204764677325</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.2091463152493778</v>
+                  <v>0.755851830798817</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.3672289001136525</v>
+                  <v>0.6744330207768494</v>
+                </pt>
+                <pt idx="4">
+                  <v>0.7441519701320974</v>
+                </pt>
+                <pt idx="5">
+                  <v>0.989040732306616</v>
+                </pt>
+                <pt idx="6">
+                  <v>0.7642524572119027</v>
+                </pt>
+                <pt idx="7">
+                  <v>0.755311232399448</v>
+                </pt>
+                <pt idx="8">
+                  <v>1.082635098252014</v>
+                </pt>
+                <pt idx="9">
+                  <v>0.9209803624885335</v>
                 </pt>
               </numCache>
             </numRef>
@@ -10716,7 +11312,118 @@
           <order val="1"/>
           <tx>
             <strRef>
-              <f>'my(5)'!$A$4</f>
+              <f>'my(4)'!$A$3</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>МШ</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'my(4)'!$B$1:$K$1</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="10"/>
+                <pt idx="0">
+                  <v>0.1</v>
+                </pt>
+                <pt idx="1">
+                  <v>0.1</v>
+                </pt>
+                <pt idx="2">
+                  <v>0.1</v>
+                </pt>
+                <pt idx="3">
+                  <v>0.1</v>
+                </pt>
+                <pt idx="4">
+                  <v>0.1</v>
+                </pt>
+                <pt idx="5">
+                  <v>0.1</v>
+                </pt>
+                <pt idx="6">
+                  <v>0.1</v>
+                </pt>
+                <pt idx="7">
+                  <v>0.1</v>
+                </pt>
+                <pt idx="8">
+                  <v>0.1</v>
+                </pt>
+                <pt idx="9">
+                  <v>0.1</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'my(4)'!$B$3:$K$3</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="10"/>
+                <pt idx="0">
+                  <v>0.5215162801365547</v>
+                </pt>
+                <pt idx="1">
+                  <v>0.4212298208870419</v>
+                </pt>
+                <pt idx="2">
+                  <v>0.8530012600949582</v>
+                </pt>
+                <pt idx="3">
+                  <v>0.8233028928218159</v>
+                </pt>
+                <pt idx="4">
+                  <v>0.9403952974619063</v>
+                </pt>
+                <pt idx="5">
+                  <v>0.8352139710020599</v>
+                </pt>
+                <pt idx="6">
+                  <v>1.031700270593044</v>
+                </pt>
+                <pt idx="7">
+                  <v>0.7901705034704107</v>
+                </pt>
+                <pt idx="8">
+                  <v>0.7897234986575972</v>
+                </pt>
+                <pt idx="9">
+                  <v>1.145774720727006</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </val>
+          <smooth val="0"/>
+        </ser>
+        <ser>
+          <idx val="2"/>
+          <order val="2"/>
+          <tx>
+            <strRef>
+              <f>'my(4)'!$A$4</f>
               <strCache>
                 <ptCount val="1"/>
                 <pt idx="0">
@@ -10744,42 +11451,78 @@
           </marker>
           <cat>
             <numRef>
-              <f>'my(5)'!$B$1:$K$1</f>
+              <f>'my(4)'!$B$1:$K$1</f>
               <numCache>
                 <formatCode>General</formatCode>
                 <ptCount val="10"/>
                 <pt idx="0">
-                  <v>0.05</v>
+                  <v>0.1</v>
                 </pt>
                 <pt idx="1">
                   <v>0.1</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.15</v>
+                  <v>0.1</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.2</v>
+                  <v>0.1</v>
+                </pt>
+                <pt idx="4">
+                  <v>0.1</v>
+                </pt>
+                <pt idx="5">
+                  <v>0.1</v>
+                </pt>
+                <pt idx="6">
+                  <v>0.1</v>
+                </pt>
+                <pt idx="7">
+                  <v>0.1</v>
+                </pt>
+                <pt idx="8">
+                  <v>0.1</v>
+                </pt>
+                <pt idx="9">
+                  <v>0.1</v>
                 </pt>
               </numCache>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'my(5)'!$B$4:$K$4</f>
+              <f>'my(4)'!$B$4:$K$4</f>
               <numCache>
                 <formatCode>General</formatCode>
                 <ptCount val="10"/>
                 <pt idx="0">
-                  <v>0.9267932245913666</v>
+                  <v>0.3443539848617393</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.5905261195973436</v>
+                  <v>0.3356178222171056</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.7282007376761411</v>
+                  <v>0.5668998833804955</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.8345342642995759</v>
+                  <v>0.7007240084324398</v>
+                </pt>
+                <pt idx="4">
+                  <v>0.8628825566840128</v>
+                </pt>
+                <pt idx="5">
+                  <v>0.7270975190771221</v>
+                </pt>
+                <pt idx="6">
+                  <v>0.63284091842568</v>
+                </pt>
+                <pt idx="7">
+                  <v>1.121949513654747</v>
+                </pt>
+                <pt idx="8">
+                  <v>0.8047633192318353</v>
+                </pt>
+                <pt idx="9">
+                  <v>1.107861521437246</v>
                 </pt>
               </numCache>
             </numRef>
@@ -10787,11 +11530,11 @@
           <smooth val="0"/>
         </ser>
         <ser>
-          <idx val="2"/>
-          <order val="2"/>
+          <idx val="3"/>
+          <order val="3"/>
           <tx>
             <strRef>
-              <f>'my(5)'!$A$5</f>
+              <f>'my(4)'!$A$5</f>
               <strCache>
                 <ptCount val="1"/>
                 <pt idx="0">
@@ -10819,42 +11562,78 @@
           </marker>
           <cat>
             <numRef>
-              <f>'my(5)'!$B$1:$K$1</f>
+              <f>'my(4)'!$B$1:$K$1</f>
               <numCache>
                 <formatCode>General</formatCode>
                 <ptCount val="10"/>
                 <pt idx="0">
-                  <v>0.05</v>
+                  <v>0.1</v>
                 </pt>
                 <pt idx="1">
                   <v>0.1</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.15</v>
+                  <v>0.1</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.2</v>
+                  <v>0.1</v>
+                </pt>
+                <pt idx="4">
+                  <v>0.1</v>
+                </pt>
+                <pt idx="5">
+                  <v>0.1</v>
+                </pt>
+                <pt idx="6">
+                  <v>0.1</v>
+                </pt>
+                <pt idx="7">
+                  <v>0.1</v>
+                </pt>
+                <pt idx="8">
+                  <v>0.1</v>
+                </pt>
+                <pt idx="9">
+                  <v>0.1</v>
                 </pt>
               </numCache>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'my(5)'!$B$5:$K$5</f>
+              <f>'my(4)'!$B$5:$K$5</f>
               <numCache>
                 <formatCode>General</formatCode>
                 <ptCount val="10"/>
                 <pt idx="0">
-                  <v>0.2570425183501205</v>
+                  <v>0.5875437875766534</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.176932142983345</v>
+                  <v>0.4982457516252659</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.1767389728327856</v>
+                  <v>0.656005813039321</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.3072255156389655</v>
+                  <v>0.7266169331435212</v>
+                </pt>
+                <pt idx="4">
+                  <v>0.6822280408882271</v>
+                </pt>
+                <pt idx="5">
+                  <v>0.7619705981264614</v>
+                </pt>
+                <pt idx="6">
+                  <v>0.9914918193890022</v>
+                </pt>
+                <pt idx="7">
+                  <v>0.8167538312765797</v>
+                </pt>
+                <pt idx="8">
+                  <v>0.8781602948688511</v>
+                </pt>
+                <pt idx="9">
+                  <v>0.8681745870596632</v>
                 </pt>
               </numCache>
             </numRef>
@@ -10862,11 +11641,11 @@
           <smooth val="0"/>
         </ser>
         <ser>
-          <idx val="3"/>
-          <order val="3"/>
+          <idx val="4"/>
+          <order val="4"/>
           <tx>
             <strRef>
-              <f>'my(5)'!$A$7</f>
+              <f>'my(4)'!$A$7</f>
               <strCache>
                 <ptCount val="1"/>
                 <pt idx="0">
@@ -10894,28 +11673,46 @@
           </marker>
           <cat>
             <numRef>
-              <f>'my(5)'!$B$1:$K$1</f>
+              <f>'my(4)'!$B$1:$K$1</f>
               <numCache>
                 <formatCode>General</formatCode>
                 <ptCount val="10"/>
                 <pt idx="0">
-                  <v>0.05</v>
+                  <v>0.1</v>
                 </pt>
                 <pt idx="1">
                   <v>0.1</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.15</v>
+                  <v>0.1</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.2</v>
+                  <v>0.1</v>
+                </pt>
+                <pt idx="4">
+                  <v>0.1</v>
+                </pt>
+                <pt idx="5">
+                  <v>0.1</v>
+                </pt>
+                <pt idx="6">
+                  <v>0.1</v>
+                </pt>
+                <pt idx="7">
+                  <v>0.1</v>
+                </pt>
+                <pt idx="8">
+                  <v>0.1</v>
+                </pt>
+                <pt idx="9">
+                  <v>0.1</v>
                 </pt>
               </numCache>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'my(5)'!$B$7:$K$7</f>
+              <f>'my(4)'!$B$7:$K$7</f>
               <numCache>
                 <formatCode>General</formatCode>
                 <ptCount val="10"/>
@@ -10930,6 +11727,24 @@
                 </pt>
                 <pt idx="3">
                   <v>0.6272634364899135</v>
+                </pt>
+                <pt idx="4">
+                  <v>0.5725690089325596</v>
+                </pt>
+                <pt idx="5">
+                  <v>0.626484751369206</v>
+                </pt>
+                <pt idx="6">
+                  <v>0.6762810618037258</v>
+                </pt>
+                <pt idx="7">
+                  <v>0.6393023375206159</v>
+                </pt>
+                <pt idx="8">
+                  <v>0.713031187381308</v>
+                </pt>
+                <pt idx="9">
+                  <v>0.8258325514116465</v>
                 </pt>
               </numCache>
             </numRef>
@@ -10990,7 +11805,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t>None</a:t>
+              <a:t/>
             </a:r>
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
@@ -11052,7 +11867,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t>None</a:t>
+              <a:t/>
             </a:r>
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
@@ -11090,7 +11905,7 @@
             </a:defRPr>
           </a:pPr>
           <a:r>
-            <a:t>None</a:t>
+            <a:t/>
           </a:r>
           <a:endParaRPr lang="ru-RU"/>
         </a:p>
@@ -11102,7 +11917,7 @@
 </chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
@@ -11137,7 +11952,7 @@
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'my(6)'!$A$2</f>
+              <f>'my(5)'!$A$2</f>
               <strCache>
                 <ptCount val="1"/>
                 <pt idx="0">
@@ -11165,30 +11980,42 @@
           </marker>
           <cat>
             <numRef>
-              <f>'my(6)'!$B$1:$K$1</f>
+              <f>'my(5)'!$B$1:$K$1</f>
               <numCache>
                 <formatCode>General</formatCode>
                 <ptCount val="10"/>
-                <pt idx="5">
-                  <v>0.1</v>
-                </pt>
-                <pt idx="6">
-                  <v>0.1</v>
+                <pt idx="0">
+                  <v>0.05</v>
+                </pt>
+                <pt idx="1">
+                  <v>0.1</v>
+                </pt>
+                <pt idx="2">
+                  <v>0.15</v>
+                </pt>
+                <pt idx="3">
+                  <v>0.2</v>
                 </pt>
               </numCache>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'my(6)'!$B$2:$K$2</f>
+              <f>'my(5)'!$B$2:$K$2</f>
               <numCache>
                 <formatCode>General</formatCode>
                 <ptCount val="10"/>
-                <pt idx="5">
-                  <v>0.7277047250630178</v>
-                </pt>
-                <pt idx="6">
-                  <v>0.3241521064873987</v>
+                <pt idx="0">
+                  <v>0.2503120980829368</v>
+                </pt>
+                <pt idx="1">
+                  <v>0.1893045245243586</v>
+                </pt>
+                <pt idx="2">
+                  <v>0.2091463152493778</v>
+                </pt>
+                <pt idx="3">
+                  <v>0.3672289001136525</v>
                 </pt>
               </numCache>
             </numRef>
@@ -11200,7 +12027,7 @@
           <order val="1"/>
           <tx>
             <strRef>
-              <f>'my(6)'!$A$4</f>
+              <f>'my(5)'!$A$4</f>
               <strCache>
                 <ptCount val="1"/>
                 <pt idx="0">
@@ -11228,30 +12055,42 @@
           </marker>
           <cat>
             <numRef>
-              <f>'my(6)'!$B$1:$K$1</f>
+              <f>'my(5)'!$B$1:$K$1</f>
               <numCache>
                 <formatCode>General</formatCode>
                 <ptCount val="10"/>
-                <pt idx="5">
-                  <v>0.1</v>
-                </pt>
-                <pt idx="6">
-                  <v>0.1</v>
+                <pt idx="0">
+                  <v>0.05</v>
+                </pt>
+                <pt idx="1">
+                  <v>0.1</v>
+                </pt>
+                <pt idx="2">
+                  <v>0.15</v>
+                </pt>
+                <pt idx="3">
+                  <v>0.2</v>
                 </pt>
               </numCache>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'my(6)'!$B$4:$K$4</f>
+              <f>'my(5)'!$B$4:$K$4</f>
               <numCache>
                 <formatCode>General</formatCode>
                 <ptCount val="10"/>
-                <pt idx="5">
-                  <v>0.6731703429885748</v>
-                </pt>
-                <pt idx="6">
-                  <v>0.369410621278924</v>
+                <pt idx="0">
+                  <v>0.9267932245913666</v>
+                </pt>
+                <pt idx="1">
+                  <v>0.5905261195973436</v>
+                </pt>
+                <pt idx="2">
+                  <v>0.7282007376761411</v>
+                </pt>
+                <pt idx="3">
+                  <v>0.8345342642995759</v>
                 </pt>
               </numCache>
             </numRef>
@@ -11263,7 +12102,7 @@
           <order val="2"/>
           <tx>
             <strRef>
-              <f>'my(6)'!$A$5</f>
+              <f>'my(5)'!$A$5</f>
               <strCache>
                 <ptCount val="1"/>
                 <pt idx="0">
@@ -11291,30 +12130,42 @@
           </marker>
           <cat>
             <numRef>
-              <f>'my(6)'!$B$1:$K$1</f>
+              <f>'my(5)'!$B$1:$K$1</f>
               <numCache>
                 <formatCode>General</formatCode>
                 <ptCount val="10"/>
-                <pt idx="5">
-                  <v>0.1</v>
-                </pt>
-                <pt idx="6">
-                  <v>0.1</v>
+                <pt idx="0">
+                  <v>0.05</v>
+                </pt>
+                <pt idx="1">
+                  <v>0.1</v>
+                </pt>
+                <pt idx="2">
+                  <v>0.15</v>
+                </pt>
+                <pt idx="3">
+                  <v>0.2</v>
                 </pt>
               </numCache>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'my(6)'!$B$5:$K$5</f>
+              <f>'my(5)'!$B$5:$K$5</f>
               <numCache>
                 <formatCode>General</formatCode>
                 <ptCount val="10"/>
-                <pt idx="5">
-                  <v>0.6833320476113395</v>
-                </pt>
-                <pt idx="6">
-                  <v>0.5010786935849919</v>
+                <pt idx="0">
+                  <v>0.2570425183501205</v>
+                </pt>
+                <pt idx="1">
+                  <v>0.176932142983345</v>
+                </pt>
+                <pt idx="2">
+                  <v>0.1767389728327856</v>
+                </pt>
+                <pt idx="3">
+                  <v>0.3072255156389655</v>
                 </pt>
               </numCache>
             </numRef>
@@ -11326,7 +12177,7 @@
           <order val="3"/>
           <tx>
             <strRef>
-              <f>'my(6)'!$A$7</f>
+              <f>'my(5)'!$A$7</f>
               <strCache>
                 <ptCount val="1"/>
                 <pt idx="0">
@@ -11354,30 +12205,42 @@
           </marker>
           <cat>
             <numRef>
-              <f>'my(6)'!$B$1:$K$1</f>
+              <f>'my(5)'!$B$1:$K$1</f>
               <numCache>
                 <formatCode>General</formatCode>
                 <ptCount val="10"/>
-                <pt idx="5">
-                  <v>0.1</v>
-                </pt>
-                <pt idx="6">
-                  <v>0.1</v>
+                <pt idx="0">
+                  <v>0.05</v>
+                </pt>
+                <pt idx="1">
+                  <v>0.1</v>
+                </pt>
+                <pt idx="2">
+                  <v>0.15</v>
+                </pt>
+                <pt idx="3">
+                  <v>0.2</v>
                 </pt>
               </numCache>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'my(6)'!$B$7:$K$7</f>
+              <f>'my(5)'!$B$7:$K$7</f>
               <numCache>
                 <formatCode>General</formatCode>
                 <ptCount val="10"/>
-                <pt idx="5">
+                <pt idx="0">
+                  <v>0.3121923602016073</v>
+                </pt>
+                <pt idx="1">
+                  <v>0.3200375408941374</v>
+                </pt>
+                <pt idx="2">
+                  <v>0.5707194820805465</v>
+                </pt>
+                <pt idx="3">
                   <v>0.6272634364899135</v>
-                </pt>
-                <pt idx="6">
-                  <v>0.6010817495174824</v>
                 </pt>
               </numCache>
             </numRef>
@@ -11438,7 +12301,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t>None</a:t>
+              <a:t/>
             </a:r>
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
@@ -11500,7 +12363,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t>None</a:t>
+              <a:t/>
             </a:r>
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
@@ -11538,7 +12401,7 @@
             </a:defRPr>
           </a:pPr>
           <a:r>
-            <a:t>None</a:t>
+            <a:t/>
           </a:r>
           <a:endParaRPr lang="ru-RU"/>
         </a:p>
@@ -11550,7 +12413,7 @@
 </chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
@@ -11585,7 +12448,7 @@
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'my(7)'!$A$2</f>
+              <f>'my(6)'!$A$2</f>
               <strCache>
                 <ptCount val="1"/>
                 <pt idx="0">
@@ -11613,38 +12476,14 @@
           </marker>
           <cat>
             <numRef>
-              <f>'my(7)'!$B$1:$K$1</f>
+              <f>'my(6)'!$B$1:$K$1</f>
               <numCache>
                 <formatCode>General</formatCode>
                 <ptCount val="10"/>
-                <pt idx="0">
-                  <v>0.1</v>
-                </pt>
-                <pt idx="1">
-                  <v>0.1</v>
-                </pt>
-                <pt idx="2">
-                  <v>0.1</v>
-                </pt>
-                <pt idx="3">
-                  <v>0.1</v>
-                </pt>
-                <pt idx="4">
-                  <v>0.1</v>
-                </pt>
                 <pt idx="5">
                   <v>0.1</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.1</v>
-                </pt>
-                <pt idx="7">
-                  <v>0.1</v>
-                </pt>
-                <pt idx="8">
-                  <v>0.1</v>
-                </pt>
-                <pt idx="9">
                   <v>0.1</v>
                 </pt>
               </numCache>
@@ -11652,39 +12491,15 @@
           </cat>
           <val>
             <numRef>
-              <f>'my(7)'!$B$2:$K$2</f>
+              <f>'my(6)'!$B$2:$K$2</f>
               <numCache>
                 <formatCode>General</formatCode>
                 <ptCount val="10"/>
-                <pt idx="0">
-                  <v>0.03366323576751942</v>
-                </pt>
-                <pt idx="1">
-                  <v>0.542831450466432</v>
-                </pt>
-                <pt idx="2">
-                  <v>0.2091789585752405</v>
-                </pt>
-                <pt idx="3">
-                  <v>0.2311778424232366</v>
-                </pt>
-                <pt idx="4">
-                  <v>0.2238594512658407</v>
-                </pt>
                 <pt idx="5">
-                  <v>0.2876249686733304</v>
+                  <v>0.7277047250630178</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.4362657278624078</v>
-                </pt>
-                <pt idx="7">
-                  <v>0.8481766974573224</v>
-                </pt>
-                <pt idx="8">
-                  <v>0.5078533272683291</v>
-                </pt>
-                <pt idx="9">
-                  <v>0.3670643384671219</v>
+                  <v>0.3241521064873987</v>
                 </pt>
               </numCache>
             </numRef>
@@ -11696,118 +12511,7 @@
           <order val="1"/>
           <tx>
             <strRef>
-              <f>'my(7)'!$A$3</f>
-              <strCache>
-                <ptCount val="1"/>
-                <pt idx="0">
-                  <v>МШ</v>
-                </pt>
-              </strCache>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:round/>
-            </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="none"/>
-            <spPr>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <cat>
-            <numRef>
-              <f>'my(7)'!$B$1:$K$1</f>
-              <numCache>
-                <formatCode>General</formatCode>
-                <ptCount val="10"/>
-                <pt idx="0">
-                  <v>0.1</v>
-                </pt>
-                <pt idx="1">
-                  <v>0.1</v>
-                </pt>
-                <pt idx="2">
-                  <v>0.1</v>
-                </pt>
-                <pt idx="3">
-                  <v>0.1</v>
-                </pt>
-                <pt idx="4">
-                  <v>0.1</v>
-                </pt>
-                <pt idx="5">
-                  <v>0.1</v>
-                </pt>
-                <pt idx="6">
-                  <v>0.1</v>
-                </pt>
-                <pt idx="7">
-                  <v>0.1</v>
-                </pt>
-                <pt idx="8">
-                  <v>0.1</v>
-                </pt>
-                <pt idx="9">
-                  <v>0.1</v>
-                </pt>
-              </numCache>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'my(7)'!$B$3:$K$3</f>
-              <numCache>
-                <formatCode>General</formatCode>
-                <ptCount val="10"/>
-                <pt idx="0">
-                  <v>1.156081294815982</v>
-                </pt>
-                <pt idx="1">
-                  <v>1.186629428865442</v>
-                </pt>
-                <pt idx="2">
-                  <v>0.5321384433909688</v>
-                </pt>
-                <pt idx="3">
-                  <v>1.351318082999281</v>
-                </pt>
-                <pt idx="4">
-                  <v>0.5434730979238235</v>
-                </pt>
-                <pt idx="5">
-                  <v>0.5575750562990965</v>
-                </pt>
-                <pt idx="6">
-                  <v>1.567881001927943</v>
-                </pt>
-                <pt idx="7">
-                  <v>1.041048998890446</v>
-                </pt>
-                <pt idx="8">
-                  <v>0.3516472349503682</v>
-                </pt>
-                <pt idx="9">
-                  <v>0.5202460164607758</v>
-                </pt>
-              </numCache>
-            </numRef>
-          </val>
-          <smooth val="0"/>
-        </ser>
-        <ser>
-          <idx val="2"/>
-          <order val="2"/>
-          <tx>
-            <strRef>
-              <f>'my(7)'!$A$4</f>
+              <f>'my(6)'!$A$4</f>
               <strCache>
                 <ptCount val="1"/>
                 <pt idx="0">
@@ -11835,38 +12539,14 @@
           </marker>
           <cat>
             <numRef>
-              <f>'my(7)'!$B$1:$K$1</f>
+              <f>'my(6)'!$B$1:$K$1</f>
               <numCache>
                 <formatCode>General</formatCode>
                 <ptCount val="10"/>
-                <pt idx="0">
-                  <v>0.1</v>
-                </pt>
-                <pt idx="1">
-                  <v>0.1</v>
-                </pt>
-                <pt idx="2">
-                  <v>0.1</v>
-                </pt>
-                <pt idx="3">
-                  <v>0.1</v>
-                </pt>
-                <pt idx="4">
-                  <v>0.1</v>
-                </pt>
                 <pt idx="5">
                   <v>0.1</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.1</v>
-                </pt>
-                <pt idx="7">
-                  <v>0.1</v>
-                </pt>
-                <pt idx="8">
-                  <v>0.1</v>
-                </pt>
-                <pt idx="9">
                   <v>0.1</v>
                 </pt>
               </numCache>
@@ -11874,39 +12554,15 @@
           </cat>
           <val>
             <numRef>
-              <f>'my(7)'!$B$4:$K$4</f>
+              <f>'my(6)'!$B$4:$K$4</f>
               <numCache>
                 <formatCode>General</formatCode>
                 <ptCount val="10"/>
-                <pt idx="0">
-                  <v>0.09663710540464723</v>
-                </pt>
-                <pt idx="1">
-                  <v>0.3357746403548477</v>
-                </pt>
-                <pt idx="2">
-                  <v>0.1630419026235822</v>
-                </pt>
-                <pt idx="3">
-                  <v>0.6555612225702042</v>
-                </pt>
-                <pt idx="4">
-                  <v>0.5003449498258301</v>
-                </pt>
                 <pt idx="5">
-                  <v>0.4888070203857794</v>
+                  <v>0.6731703429885748</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.1047600357165561</v>
-                </pt>
-                <pt idx="7">
-                  <v>0.4992401037924278</v>
-                </pt>
-                <pt idx="8">
-                  <v>0.2048326059837203</v>
-                </pt>
-                <pt idx="9">
-                  <v>0.3113724068866698</v>
+                  <v>0.369410621278924</v>
                 </pt>
               </numCache>
             </numRef>
@@ -11914,11 +12570,11 @@
           <smooth val="0"/>
         </ser>
         <ser>
-          <idx val="3"/>
-          <order val="3"/>
+          <idx val="2"/>
+          <order val="2"/>
           <tx>
             <strRef>
-              <f>'my(7)'!$A$5</f>
+              <f>'my(6)'!$A$5</f>
               <strCache>
                 <ptCount val="1"/>
                 <pt idx="0">
@@ -11946,38 +12602,14 @@
           </marker>
           <cat>
             <numRef>
-              <f>'my(7)'!$B$1:$K$1</f>
+              <f>'my(6)'!$B$1:$K$1</f>
               <numCache>
                 <formatCode>General</formatCode>
                 <ptCount val="10"/>
-                <pt idx="0">
-                  <v>0.1</v>
-                </pt>
-                <pt idx="1">
-                  <v>0.1</v>
-                </pt>
-                <pt idx="2">
-                  <v>0.1</v>
-                </pt>
-                <pt idx="3">
-                  <v>0.1</v>
-                </pt>
-                <pt idx="4">
-                  <v>0.1</v>
-                </pt>
                 <pt idx="5">
                   <v>0.1</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.1</v>
-                </pt>
-                <pt idx="7">
-                  <v>0.1</v>
-                </pt>
-                <pt idx="8">
-                  <v>0.1</v>
-                </pt>
-                <pt idx="9">
                   <v>0.1</v>
                 </pt>
               </numCache>
@@ -11985,39 +12617,15 @@
           </cat>
           <val>
             <numRef>
-              <f>'my(7)'!$B$5:$K$5</f>
+              <f>'my(6)'!$B$5:$K$5</f>
               <numCache>
                 <formatCode>General</formatCode>
                 <ptCount val="10"/>
-                <pt idx="0">
-                  <v>0.03162150900606474</v>
-                </pt>
-                <pt idx="1">
-                  <v>0.5442845785499845</v>
-                </pt>
-                <pt idx="2">
-                  <v>0.1305534251848662</v>
-                </pt>
-                <pt idx="3">
-                  <v>0.3899725622805052</v>
-                </pt>
-                <pt idx="4">
-                  <v>0.3108165273943623</v>
-                </pt>
                 <pt idx="5">
-                  <v>0.3135167620341027</v>
+                  <v>0.6833320476113395</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.4874131382970976</v>
-                </pt>
-                <pt idx="7">
-                  <v>1.138714797129037</v>
-                </pt>
-                <pt idx="8">
-                  <v>0.6263838392758123</v>
-                </pt>
-                <pt idx="9">
-                  <v>0.3618813963668051</v>
+                  <v>0.5010786935849919</v>
                 </pt>
               </numCache>
             </numRef>
@@ -12025,11 +12633,11 @@
           <smooth val="0"/>
         </ser>
         <ser>
-          <idx val="4"/>
-          <order val="4"/>
+          <idx val="3"/>
+          <order val="3"/>
           <tx>
             <strRef>
-              <f>'my(7)'!$A$7</f>
+              <f>'my(6)'!$A$7</f>
               <strCache>
                 <ptCount val="1"/>
                 <pt idx="0">
@@ -12057,38 +12665,14 @@
           </marker>
           <cat>
             <numRef>
-              <f>'my(7)'!$B$1:$K$1</f>
+              <f>'my(6)'!$B$1:$K$1</f>
               <numCache>
                 <formatCode>General</formatCode>
                 <ptCount val="10"/>
-                <pt idx="0">
-                  <v>0.1</v>
-                </pt>
-                <pt idx="1">
-                  <v>0.1</v>
-                </pt>
-                <pt idx="2">
-                  <v>0.1</v>
-                </pt>
-                <pt idx="3">
-                  <v>0.1</v>
-                </pt>
-                <pt idx="4">
-                  <v>0.1</v>
-                </pt>
                 <pt idx="5">
                   <v>0.1</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.1</v>
-                </pt>
-                <pt idx="7">
-                  <v>0.1</v>
-                </pt>
-                <pt idx="8">
-                  <v>0.1</v>
-                </pt>
-                <pt idx="9">
                   <v>0.1</v>
                 </pt>
               </numCache>
@@ -12096,39 +12680,15 @@
           </cat>
           <val>
             <numRef>
-              <f>'my(7)'!$B$7:$K$7</f>
+              <f>'my(6)'!$B$7:$K$7</f>
               <numCache>
                 <formatCode>General</formatCode>
                 <ptCount val="10"/>
-                <pt idx="0">
-                  <v>0.2343512806176491</v>
-                </pt>
-                <pt idx="1">
-                  <v>0.4344968209862619</v>
-                </pt>
-                <pt idx="2">
-                  <v>0.5607305193726206</v>
-                </pt>
-                <pt idx="3">
-                  <v>0.5120493246588496</v>
-                </pt>
-                <pt idx="4">
-                  <v>0.6105031924497352</v>
-                </pt>
                 <pt idx="5">
-                  <v>0.6618043490615891</v>
+                  <v>0.6272634364899135</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.8753647421805655</v>
-                </pt>
-                <pt idx="7">
-                  <v>0.7577967809059293</v>
-                </pt>
-                <pt idx="8">
-                  <v>0.8135330303643015</v>
-                </pt>
-                <pt idx="9">
-                  <v>0.6720947418735231</v>
+                  <v>0.6010817495174824</v>
                 </pt>
               </numCache>
             </numRef>
@@ -12189,7 +12749,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t>None</a:t>
+              <a:t/>
             </a:r>
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
@@ -12251,7 +12811,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t>None</a:t>
+              <a:t/>
             </a:r>
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
@@ -12289,7 +12849,7 @@
             </a:defRPr>
           </a:pPr>
           <a:r>
-            <a:t>None</a:t>
+            <a:t/>
           </a:r>
           <a:endParaRPr lang="ru-RU"/>
         </a:p>
@@ -12301,7 +12861,7 @@
 </chartSpace>
 </file>
 
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
@@ -12336,7 +12896,7 @@
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'my(8)'!$A$2</f>
+              <f>'my(7)'!$A$2</f>
               <strCache>
                 <ptCount val="1"/>
                 <pt idx="0">
@@ -12364,7 +12924,7 @@
           </marker>
           <cat>
             <numRef>
-              <f>'my(8)'!$B$1:$K$1</f>
+              <f>'my(7)'!$B$1:$K$1</f>
               <numCache>
                 <formatCode>General</formatCode>
                 <ptCount val="10"/>
@@ -12403,39 +12963,39 @@
           </cat>
           <val>
             <numRef>
-              <f>'my(8)'!$B$2:$K$2</f>
+              <f>'my(7)'!$B$2:$K$2</f>
               <numCache>
                 <formatCode>General</formatCode>
                 <ptCount val="10"/>
                 <pt idx="0">
-                  <v>0.01727722191983182</v>
+                  <v>0.03366323576751942</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.7939807181203028</v>
+                  <v>0.542831450466432</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.3226766785209652</v>
+                  <v>0.2091789585752405</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.2660713163252102</v>
+                  <v>0.2311778424232366</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.1366914979127061</v>
+                  <v>0.2238594512658407</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.3424231424899125</v>
+                  <v>0.2876249686733304</v>
                 </pt>
                 <pt idx="6">
-                  <v>1.141142778836327</v>
+                  <v>0.4362657278624078</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.1832560684027803</v>
+                  <v>0.8481766974573224</v>
                 </pt>
                 <pt idx="8">
-                  <v>1.122157676417232</v>
+                  <v>0.5078533272683291</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.9354578161254792</v>
+                  <v>0.3670643384671219</v>
                 </pt>
               </numCache>
             </numRef>
@@ -12447,7 +13007,7 @@
           <order val="1"/>
           <tx>
             <strRef>
-              <f>'my(8)'!$A$3</f>
+              <f>'my(7)'!$A$3</f>
               <strCache>
                 <ptCount val="1"/>
                 <pt idx="0">
@@ -12475,7 +13035,7 @@
           </marker>
           <cat>
             <numRef>
-              <f>'my(8)'!$B$1:$K$1</f>
+              <f>'my(7)'!$B$1:$K$1</f>
               <numCache>
                 <formatCode>General</formatCode>
                 <ptCount val="10"/>
@@ -12514,39 +13074,39 @@
           </cat>
           <val>
             <numRef>
-              <f>'my(8)'!$B$3:$K$3</f>
+              <f>'my(7)'!$B$3:$K$3</f>
               <numCache>
                 <formatCode>General</formatCode>
                 <ptCount val="10"/>
                 <pt idx="0">
-                  <v>0.01747450845929456</v>
+                  <v>1.156081294815982</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.3134883984987306</v>
+                  <v>1.186629428865442</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.3970002640088043</v>
+                  <v>0.5321384433909688</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.4199654643388543</v>
+                  <v>1.351318082999281</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.1757153534743413</v>
+                  <v>0.5434730979238235</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.5463481736717711</v>
+                  <v>0.5575750562990965</v>
                 </pt>
                 <pt idx="6">
-                  <v>1.592031807741403</v>
+                  <v>1.567881001927943</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.3293621124407795</v>
+                  <v>1.041048998890446</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.3464621511769561</v>
+                  <v>0.3516472349503682</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.2734438098401503</v>
+                  <v>0.5202460164607758</v>
                 </pt>
               </numCache>
             </numRef>
@@ -12558,7 +13118,7 @@
           <order val="2"/>
           <tx>
             <strRef>
-              <f>'my(8)'!$A$4</f>
+              <f>'my(7)'!$A$4</f>
               <strCache>
                 <ptCount val="1"/>
                 <pt idx="0">
@@ -12586,7 +13146,7 @@
           </marker>
           <cat>
             <numRef>
-              <f>'my(8)'!$B$1:$K$1</f>
+              <f>'my(7)'!$B$1:$K$1</f>
               <numCache>
                 <formatCode>General</formatCode>
                 <ptCount val="10"/>
@@ -12625,39 +13185,39 @@
           </cat>
           <val>
             <numRef>
-              <f>'my(8)'!$B$4:$K$4</f>
+              <f>'my(7)'!$B$4:$K$4</f>
               <numCache>
                 <formatCode>General</formatCode>
                 <ptCount val="10"/>
                 <pt idx="0">
-                  <v>0.1143786897117107</v>
+                  <v>0.09663710540464723</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.3697671437237702</v>
+                  <v>0.3357746403548477</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.03018944055034032</v>
+                  <v>0.1630419026235822</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.196577662794233</v>
+                  <v>0.6555612225702042</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.03252238916238095</v>
+                  <v>0.5003449498258301</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.8555449246652164</v>
+                  <v>0.4888070203857794</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.9306499823035829</v>
+                  <v>0.1047600357165561</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.4134654631370738</v>
+                  <v>0.4992401037924278</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.2466059606981949</v>
+                  <v>0.2048326059837203</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.07754196311730786</v>
+                  <v>0.3113724068866698</v>
                 </pt>
               </numCache>
             </numRef>
@@ -12669,7 +13229,7 @@
           <order val="3"/>
           <tx>
             <strRef>
-              <f>'my(8)'!$A$5</f>
+              <f>'my(7)'!$A$5</f>
               <strCache>
                 <ptCount val="1"/>
                 <pt idx="0">
@@ -12697,7 +13257,7 @@
           </marker>
           <cat>
             <numRef>
-              <f>'my(8)'!$B$1:$K$1</f>
+              <f>'my(7)'!$B$1:$K$1</f>
               <numCache>
                 <formatCode>General</formatCode>
                 <ptCount val="10"/>
@@ -12736,39 +13296,39 @@
           </cat>
           <val>
             <numRef>
-              <f>'my(8)'!$B$5:$K$5</f>
+              <f>'my(7)'!$B$5:$K$5</f>
               <numCache>
                 <formatCode>General</formatCode>
                 <ptCount val="10"/>
                 <pt idx="0">
-                  <v>0.01363657044916465</v>
+                  <v>0.03162150900606474</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.9123608293996968</v>
+                  <v>0.5442845785499845</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.1948438126030577</v>
+                  <v>0.1305534251848662</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.5097524127824642</v>
+                  <v>0.3899725622805052</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.2150167497207392</v>
+                  <v>0.3108165273943623</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.2403098024485206</v>
+                  <v>0.3135167620341027</v>
                 </pt>
                 <pt idx="6">
-                  <v>1.034066757519885</v>
+                  <v>0.4874131382970976</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.3158524432652175</v>
+                  <v>1.138714797129037</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.3797355854351727</v>
+                  <v>0.6263838392758123</v>
                 </pt>
                 <pt idx="9">
-                  <v>1.274326924647877</v>
+                  <v>0.3618813963668051</v>
                 </pt>
               </numCache>
             </numRef>
@@ -12780,7 +13340,7 @@
           <order val="4"/>
           <tx>
             <strRef>
-              <f>'my(8)'!$A$7</f>
+              <f>'my(7)'!$A$7</f>
               <strCache>
                 <ptCount val="1"/>
                 <pt idx="0">
@@ -12808,7 +13368,7 @@
           </marker>
           <cat>
             <numRef>
-              <f>'my(8)'!$B$1:$K$1</f>
+              <f>'my(7)'!$B$1:$K$1</f>
               <numCache>
                 <formatCode>General</formatCode>
                 <ptCount val="10"/>
@@ -12847,39 +13407,39 @@
           </cat>
           <val>
             <numRef>
-              <f>'my(8)'!$B$7:$K$7</f>
+              <f>'my(7)'!$B$7:$K$7</f>
               <numCache>
                 <formatCode>General</formatCode>
                 <ptCount val="10"/>
                 <pt idx="0">
-                  <v>0.03707747177813621</v>
+                  <v>0.2343512806176491</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.9932605981257427</v>
+                  <v>0.4344968209862619</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.9839381057824503</v>
+                  <v>0.5607305193726206</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.6751549003261198</v>
+                  <v>0.5120493246588496</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.05695815956721503</v>
+                  <v>0.6105031924497352</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.2403712929129403</v>
+                  <v>0.6618043490615891</v>
                 </pt>
                 <pt idx="6">
-                  <v>1.392888087126614</v>
+                  <v>0.8753647421805655</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.724723131158981</v>
+                  <v>0.7577967809059293</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.42880682665589</v>
+                  <v>0.8135330303643015</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.9695852222040442</v>
+                  <v>0.6720947418735231</v>
                 </pt>
               </numCache>
             </numRef>
@@ -12940,7 +13500,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t>None</a:t>
+              <a:t/>
             </a:r>
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
@@ -13002,7 +13562,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t>None</a:t>
+              <a:t/>
             </a:r>
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
@@ -13040,7 +13600,758 @@
             </a:defRPr>
           </a:pPr>
           <a:r>
-            <a:t>None</a:t>
+            <a:t/>
+          </a:r>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </txPr>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>None</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+      <overlay val="0"/>
+      <spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </title>
+    <plotArea>
+      <layout/>
+      <lineChart>
+        <grouping val="standard"/>
+        <varyColors val="0"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'my(8)'!$A$2</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>Морле</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'my(8)'!$B$1:$K$1</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="10"/>
+                <pt idx="0">
+                  <v>0.1</v>
+                </pt>
+                <pt idx="1">
+                  <v>0.1</v>
+                </pt>
+                <pt idx="2">
+                  <v>0.1</v>
+                </pt>
+                <pt idx="3">
+                  <v>0.1</v>
+                </pt>
+                <pt idx="4">
+                  <v>0.1</v>
+                </pt>
+                <pt idx="5">
+                  <v>0.1</v>
+                </pt>
+                <pt idx="6">
+                  <v>0.1</v>
+                </pt>
+                <pt idx="7">
+                  <v>0.1</v>
+                </pt>
+                <pt idx="8">
+                  <v>0.1</v>
+                </pt>
+                <pt idx="9">
+                  <v>0.1</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'my(8)'!$B$2:$K$2</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="10"/>
+                <pt idx="0">
+                  <v>0.01727722191983182</v>
+                </pt>
+                <pt idx="1">
+                  <v>0.7939807181203028</v>
+                </pt>
+                <pt idx="2">
+                  <v>0.3226766785209652</v>
+                </pt>
+                <pt idx="3">
+                  <v>0.2660713163252102</v>
+                </pt>
+                <pt idx="4">
+                  <v>0.1366914979127061</v>
+                </pt>
+                <pt idx="5">
+                  <v>0.3424231424899125</v>
+                </pt>
+                <pt idx="6">
+                  <v>1.141142778836327</v>
+                </pt>
+                <pt idx="7">
+                  <v>0.1832560684027803</v>
+                </pt>
+                <pt idx="8">
+                  <v>1.122157676417232</v>
+                </pt>
+                <pt idx="9">
+                  <v>0.9354578161254792</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </val>
+          <smooth val="0"/>
+        </ser>
+        <ser>
+          <idx val="1"/>
+          <order val="1"/>
+          <tx>
+            <strRef>
+              <f>'my(8)'!$A$3</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>МШ</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'my(8)'!$B$1:$K$1</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="10"/>
+                <pt idx="0">
+                  <v>0.1</v>
+                </pt>
+                <pt idx="1">
+                  <v>0.1</v>
+                </pt>
+                <pt idx="2">
+                  <v>0.1</v>
+                </pt>
+                <pt idx="3">
+                  <v>0.1</v>
+                </pt>
+                <pt idx="4">
+                  <v>0.1</v>
+                </pt>
+                <pt idx="5">
+                  <v>0.1</v>
+                </pt>
+                <pt idx="6">
+                  <v>0.1</v>
+                </pt>
+                <pt idx="7">
+                  <v>0.1</v>
+                </pt>
+                <pt idx="8">
+                  <v>0.1</v>
+                </pt>
+                <pt idx="9">
+                  <v>0.1</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'my(8)'!$B$3:$K$3</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="10"/>
+                <pt idx="0">
+                  <v>0.01747450845929456</v>
+                </pt>
+                <pt idx="1">
+                  <v>0.3134883984987306</v>
+                </pt>
+                <pt idx="2">
+                  <v>0.3970002640088043</v>
+                </pt>
+                <pt idx="3">
+                  <v>0.4199654643388543</v>
+                </pt>
+                <pt idx="4">
+                  <v>0.1757153534743413</v>
+                </pt>
+                <pt idx="5">
+                  <v>0.5463481736717711</v>
+                </pt>
+                <pt idx="6">
+                  <v>1.592031807741403</v>
+                </pt>
+                <pt idx="7">
+                  <v>0.3293621124407795</v>
+                </pt>
+                <pt idx="8">
+                  <v>0.3464621511769561</v>
+                </pt>
+                <pt idx="9">
+                  <v>0.2734438098401503</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </val>
+          <smooth val="0"/>
+        </ser>
+        <ser>
+          <idx val="2"/>
+          <order val="2"/>
+          <tx>
+            <strRef>
+              <f>'my(8)'!$A$4</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>DOG</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'my(8)'!$B$1:$K$1</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="10"/>
+                <pt idx="0">
+                  <v>0.1</v>
+                </pt>
+                <pt idx="1">
+                  <v>0.1</v>
+                </pt>
+                <pt idx="2">
+                  <v>0.1</v>
+                </pt>
+                <pt idx="3">
+                  <v>0.1</v>
+                </pt>
+                <pt idx="4">
+                  <v>0.1</v>
+                </pt>
+                <pt idx="5">
+                  <v>0.1</v>
+                </pt>
+                <pt idx="6">
+                  <v>0.1</v>
+                </pt>
+                <pt idx="7">
+                  <v>0.1</v>
+                </pt>
+                <pt idx="8">
+                  <v>0.1</v>
+                </pt>
+                <pt idx="9">
+                  <v>0.1</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'my(8)'!$B$4:$K$4</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="10"/>
+                <pt idx="0">
+                  <v>0.1143786897117107</v>
+                </pt>
+                <pt idx="1">
+                  <v>0.3697671437237702</v>
+                </pt>
+                <pt idx="2">
+                  <v>0.03018944055034032</v>
+                </pt>
+                <pt idx="3">
+                  <v>0.196577662794233</v>
+                </pt>
+                <pt idx="4">
+                  <v>0.03252238916238095</v>
+                </pt>
+                <pt idx="5">
+                  <v>0.8555449246652164</v>
+                </pt>
+                <pt idx="6">
+                  <v>0.9306499823035829</v>
+                </pt>
+                <pt idx="7">
+                  <v>0.4134654631370738</v>
+                </pt>
+                <pt idx="8">
+                  <v>0.2466059606981949</v>
+                </pt>
+                <pt idx="9">
+                  <v>0.07754196311730786</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </val>
+          <smooth val="0"/>
+        </ser>
+        <ser>
+          <idx val="3"/>
+          <order val="3"/>
+          <tx>
+            <strRef>
+              <f>'my(8)'!$A$5</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>LP</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'my(8)'!$B$1:$K$1</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="10"/>
+                <pt idx="0">
+                  <v>0.1</v>
+                </pt>
+                <pt idx="1">
+                  <v>0.1</v>
+                </pt>
+                <pt idx="2">
+                  <v>0.1</v>
+                </pt>
+                <pt idx="3">
+                  <v>0.1</v>
+                </pt>
+                <pt idx="4">
+                  <v>0.1</v>
+                </pt>
+                <pt idx="5">
+                  <v>0.1</v>
+                </pt>
+                <pt idx="6">
+                  <v>0.1</v>
+                </pt>
+                <pt idx="7">
+                  <v>0.1</v>
+                </pt>
+                <pt idx="8">
+                  <v>0.1</v>
+                </pt>
+                <pt idx="9">
+                  <v>0.1</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'my(8)'!$B$5:$K$5</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="10"/>
+                <pt idx="0">
+                  <v>0.01363657044916465</v>
+                </pt>
+                <pt idx="1">
+                  <v>0.9123608293996968</v>
+                </pt>
+                <pt idx="2">
+                  <v>0.1948438126030577</v>
+                </pt>
+                <pt idx="3">
+                  <v>0.5097524127824642</v>
+                </pt>
+                <pt idx="4">
+                  <v>0.2150167497207392</v>
+                </pt>
+                <pt idx="5">
+                  <v>0.2403098024485206</v>
+                </pt>
+                <pt idx="6">
+                  <v>1.034066757519885</v>
+                </pt>
+                <pt idx="7">
+                  <v>0.3158524432652175</v>
+                </pt>
+                <pt idx="8">
+                  <v>0.3797355854351727</v>
+                </pt>
+                <pt idx="9">
+                  <v>1.274326924647877</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </val>
+          <smooth val="0"/>
+        </ser>
+        <ser>
+          <idx val="4"/>
+          <order val="4"/>
+          <tx>
+            <strRef>
+              <f>'my(8)'!$A$7</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>МНК</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'my(8)'!$B$1:$K$1</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="10"/>
+                <pt idx="0">
+                  <v>0.1</v>
+                </pt>
+                <pt idx="1">
+                  <v>0.1</v>
+                </pt>
+                <pt idx="2">
+                  <v>0.1</v>
+                </pt>
+                <pt idx="3">
+                  <v>0.1</v>
+                </pt>
+                <pt idx="4">
+                  <v>0.1</v>
+                </pt>
+                <pt idx="5">
+                  <v>0.1</v>
+                </pt>
+                <pt idx="6">
+                  <v>0.1</v>
+                </pt>
+                <pt idx="7">
+                  <v>0.1</v>
+                </pt>
+                <pt idx="8">
+                  <v>0.1</v>
+                </pt>
+                <pt idx="9">
+                  <v>0.1</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'my(8)'!$B$7:$K$7</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="10"/>
+                <pt idx="0">
+                  <v>0.03707747177813621</v>
+                </pt>
+                <pt idx="1">
+                  <v>0.9932605981257427</v>
+                </pt>
+                <pt idx="2">
+                  <v>0.9839381057824503</v>
+                </pt>
+                <pt idx="3">
+                  <v>0.6751549003261198</v>
+                </pt>
+                <pt idx="4">
+                  <v>0.05695815956721503</v>
+                </pt>
+                <pt idx="5">
+                  <v>0.2403712929129403</v>
+                </pt>
+                <pt idx="6">
+                  <v>1.392888087126614</v>
+                </pt>
+                <pt idx="7">
+                  <v>0.724723131158981</v>
+                </pt>
+                <pt idx="8">
+                  <v>0.42880682665589</v>
+                </pt>
+                <pt idx="9">
+                  <v>0.9695852222040442</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </val>
+          <smooth val="0"/>
+        </ser>
+        <dLbls>
+          <showLegendKey val="0"/>
+          <showVal val="0"/>
+          <showCatName val="0"/>
+          <showSerName val="0"/>
+          <showPercent val="0"/>
+          <showBubbleSize val="0"/>
+        </dLbls>
+        <smooth val="0"/>
+        <axId val="565975920"/>
+        <axId val="571139072"/>
+      </lineChart>
+      <catAx>
+        <axId val="565975920"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <delete val="0"/>
+        <axPos val="b"/>
+        <numFmt formatCode="General" sourceLinked="1"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <tickLblPos val="nextTo"/>
+        <spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+          </a:ln>
+        </spPr>
+        <txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:t/>
+            </a:r>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </txPr>
+        <crossAx val="571139072"/>
+        <crosses val="autoZero"/>
+        <auto val="1"/>
+        <lblAlgn val="ctr"/>
+        <lblOffset val="100"/>
+        <noMultiLvlLbl val="0"/>
+      </catAx>
+      <valAx>
+        <axId val="571139072"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <delete val="0"/>
+        <axPos val="l"/>
+        <majorGridlines>
+          <spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+          </spPr>
+        </majorGridlines>
+        <numFmt formatCode="General" sourceLinked="1"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <tickLblPos val="nextTo"/>
+        <spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+            <a:prstDash val="solid"/>
+          </a:ln>
+        </spPr>
+        <txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:t/>
+            </a:r>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </txPr>
+        <crossAx val="565975920"/>
+        <crosses val="autoZero"/>
+        <crossBetween val="between"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="b"/>
+      <overlay val="0"/>
+      <spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+      <txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:t/>
           </a:r>
           <a:endParaRPr lang="ru-RU"/>
         </a:p>
@@ -13309,6 +14620,70 @@
 </file>
 
 <file path=xl/drawings/drawing17.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <twoCellAnchor>
+    <from>
+      <col>6</col>
+      <colOff>411480</colOff>
+      <row>5</row>
+      <rowOff>0</rowOff>
+    </from>
+    <to>
+      <col>14</col>
+      <colOff>106680</colOff>
+      <row>20</row>
+      <rowOff>0</rowOff>
+    </to>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="1" name="Chart 1"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </twoCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing18.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <twoCellAnchor>
+    <from>
+      <col>11</col>
+      <colOff>205740</colOff>
+      <row>4</row>
+      <rowOff>15240</rowOff>
+    </from>
+    <to>
+      <col>18</col>
+      <colOff>510540</colOff>
+      <row>19</row>
+      <rowOff>15240</rowOff>
+    </to>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="1" name="Chart 1"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </twoCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing19.xml><?xml version="1.0" encoding="utf-8"?>
 <wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor>
     <from>
@@ -20574,7 +21949,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="A1" sqref="A1:A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
@@ -20765,10 +22140,130 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L24" sqref="L24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C1" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D1" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Морле</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>МШ</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.01710128390854469</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.01520760923741227</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.04443798083591816</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>DOG</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>1.25954602848415</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.5267192543225445</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.4903983185259252</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>LP</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Фурье</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>МНК</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.03372954068072945</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.02729955344145545</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.04562034148054177</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>noise</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>bn</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
@@ -20783,127 +22278,279 @@
         <v>0.05</v>
       </c>
       <c r="C1" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="D1" t="n">
-        <v>0.05</v>
+        <v>0.15</v>
       </c>
       <c r="E1" t="n">
-        <v>0.05</v>
+        <v>0.2</v>
+      </c>
+      <c r="F1" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G1" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H1" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="I1" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J1" t="n">
+        <v>0.45</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Морле</t>
+          <t>МШ</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.005139644010222194</v>
+        <v>0.007365007990507895</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01712064182012415</v>
+        <v>0.008349261247380247</v>
       </c>
       <c r="D2" t="n">
-        <v>0.02532706298628025</v>
+        <v>0.0440904268775991</v>
       </c>
       <c r="E2" t="n">
-        <v>0.04108734306277667</v>
+        <v>0.2196896345188084</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.1778664460169615</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.258610233993401</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.5245910684933137</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.2019596383669947</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.323586734080846</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>МШ</t>
+          <t>DOG</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.006512059297474994</v>
+        <v>0.5688219367684917</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02216593680255772</v>
+        <v>0.1779184946905529</v>
       </c>
       <c r="D3" t="n">
-        <v>0.03678693836785805</v>
+        <v>0.2100873410850658</v>
       </c>
       <c r="E3" t="n">
-        <v>0.05571158190479355</v>
+        <v>0.08007587142386925</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.3253673928795714</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.3490136118312274</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.7849370693547348</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.4521267771144893</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1.622902303600773</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>МНК</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.03372954068072945</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.02729955344145545</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.04562034148054177</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.06710093199620062</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.0849890516372795</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.07747456425643602</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.08946897404534337</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.07683853493090385</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.1206574799343306</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>noise</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>bn</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:H4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>назв</t>
+        </is>
+      </c>
+      <c r="B1" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D1" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="E1" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F1" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G1" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H1" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>МШ</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.007365007990507895</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.008349261247380247</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.0440904268775991</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.2196896345188084</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.1778664460169615</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.1778666021192322</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.1592313955747907</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
           <t>DOG</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0.6268228526141952</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.09087924547021591</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.1497705643968968</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.1127393320916353</v>
+      <c r="B3" t="n">
+        <v>0.5688219367684917</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.1779184946905529</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.2100873410850658</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.08007587142386925</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.3253673928795714</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.3253680717228315</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.0849890516372795</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>LP</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>0.00646568115197538</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.01390339539019017</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.03053121357711141</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.04488979098313151</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Фурье</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>0.01720614463391657</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.02285524335502876</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.04246311581797173</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.05261370424856506</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
+    <row r="4">
+      <c r="A4" t="inlineStr">
         <is>
           <t>МНК</t>
         </is>
       </c>
-      <c r="B7" t="n">
-        <v>0.03034501065937824</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.03112166566951197</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.04359416502929249</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.0617016187988779</v>
+      <c r="B4" t="n">
+        <v>0.03372954068072945</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.02729955344145545</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.04562034148054177</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.06710093199620062</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.0849890516372795</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.0849890516372795</v>
       </c>
     </row>
     <row r="10">
